--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5e2521e471d018/Documents/GitHub/all-about-africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D88567A9-AF84-4D0B-8269-E5B2FCD9791E}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC1C972-769B-40A3-97E8-B09FCEE2727C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Economy</t>
   </si>
@@ -63,14 +63,74 @@
     <t xml:space="preserve">https://www.forbes.com/lists/africa-billionaires/ </t>
   </si>
   <si>
-    <t>According to the International Monetary Fund, the economies of African countries overall are growing their real GDP at a faster rate than countries that are considered to have advanced economies. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B.</t>
+    <t>According to the International Monetary Fund, the economies of African countries overall are growing their real GDP at a faster rate than countries that are considered to have advanced economies. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010.  Despite the fact that 23 of the poorest countries in the world come from Africa, it is an incorrect statement to say that ALL Africans are poor and are barely surviving.  Many Africans are making a substantial living in major urban cities which can be explored in our infrastructure section.  The poverty rate is declining as many countries' economies continue to develop and grow. There is a vast array of white collar jobs that contribute to the running of the economy.</t>
+  </si>
+  <si>
+    <t>Africa is neither a continent covered solely by desert or savannah. (Africa land map with different terrains). There are 8 different physical regions in Africa: the Sahara, the Sahel, the Ethiopian Highlands, savannas, the Swahili Coast, rainforests, the African Great Lakes, and Southern Africa. The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live. (picture) The Sahel is a narrow band that is the barrier between the Sahara and the savannas. It ranges from Senegal to Sudan. It contains the Niger River delta. Through drought, deforestation, and intensive agriculture, the Sahel is being desertified. (picture) The Ethiopian Highlands rose 75 million years ago as magma. The Great Rift Valley System was formed after Africa's continental crust pulled apart. 80 percent of Africa's tallest mountains reside in the Highlands. One unique animal that some may not think resides in Africa is the Ethiopian wolf. (ethiopian wolf picture) The savannas comprise almost half of Africa, beginning south of the Sahel and ending just north of the continent's southern tip. The most popular savanna region is the Serengeti Plains. Afirca's highest concentrations of large mammal species reside there. However, the savanna lands are decreasing due to a desire for more agriculture. (picture) The Swahili Coast  stretches along the coast of Kenya, Mozambique, and Tanzania. Areas of the Coast are centers for trade and water travel. Major international include Dar es Salaam and Mombasa. (picture of international port) Mangrove forests are the most common form of vegetation in the Swahili Coast. (picture) The rainforests of Africa are known for their rich  biodiversity. (biodiversity map) Some indigenous rainforest groups live off the forest's provisions but have little content with the urban populations. Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria. (picture of Lake Victoria) Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments are looking to harness the power of river and lakes to create hydroelectric power. Southern Africa, not to be mistaken with the country of South Africa is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's reserves, providing jobs and revenue. The Cape Floral Region is home to nearly 20% of Africa's flora. (list of animals in each region) The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa is not wholly a hot and arid continent. Considering all factors Africa has 8 different climatic regions:  the hot desert, semiarid, tropical wet-and-dry, equatorail, Mediterranean, humid subtropical marine, warm temperate upland, and mountain regions (insert britannica climate picture). The hot desert region can be characterized by aridity and high average monthly temperatures. The Sahara, Kalahari, and Somali deserts make up this region.  The semiarid regions are similar to the desert regions in temperature but are not true desert due to receiving more rainfall. This region includes the greater part of the land south of the Zambezi River.  The tropical wet-and-dry region, more popularly known as the savanna region, incorrectly suggest that everywhere with savanna vegetation has this climate. This region covers a little less than 50% of the continent's total surface area. 6 months of rainfall characterize this region. Some places may have little rainfall during the low sun period however. The mean monthly temperatures have little variation. In western Africa, the harmattan season directs the period of low sun. The harmattan is a warm, dry, easterly or northeasterly wind from the Sahara, bringing with it lots of sand and dust. Equatorial regions are the wettest in Africa. There are specifically two peak periods of rainfall. Variations in temperature are typically less pronounced than the tropical wet-and-dry regions but sometimes one rainy season may be monsoonal and the other near nonexistent. The Mediterranean or dry summer subtropical region covers the northern and southern extremes of Africa. Rain falls during the winter. Monthly temperatures are lower than tropical climates on average dropping to roughly 50 degrees Fahrenheit in the winter. Summer temperatures, however, may exceed that of tropical climates. Clear blue skies are also another characteristic of this climatic region. The humid subtropical marine climate is restricted to the southeast coast of Africa. Rain falls throughout the year, reaching its heaviest amounts during the summer. The warm temperate upland climatic region is found on the Highveld of Southern Africa. The rainfall is similar to the tropical wet-and-dry climate but temperatures are dependent on altitude.  The mountain climatic region covers the high mountains of Ethiopia and the lakes of EAst Africa. This climate is similar to the warm temperate upland climate minus the fact that temperatures can be lower because of mountains like Mt. Kilimanjaro. Rainfall is similar to that of the adjacent lowland areas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One common stereotype about Africa is that Africans do not have internet access. However this general statement does not highlight the true realities of internet access. 64% of urban people in Africa use internet. However this varies between countries. Morocco's share of internet users is 90.7% while the Central African Republic's is 10.6%. By 2029 Internet is expected to reach over 1.1 billion people in Africa. The growth of internet access hasn't slowed down over the past couple of years. (diplo chart about internet penetration). Some African countries even have 5G access. (diplo chart about 5g) African governments have been improving internet access by adding satellites, mobile networks, and cables to give as much access as possible. Fibre optics has tripled between 2010 and 2020. Nigeria has the 6th highest number of mobile cellular telephone subscribers at 222,225,000 subscribers. In 2013 the World Bank and African Development Bank reported that there were 650 million mobile users in Africa, surpassing the U.S. and Europe.  While having the highest internet prices in the world, prices are going down but speed is increasing due to increased development of digital infrastructure. 38 million people used Facebook in 2011. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">African governments are not filled with corruption and are ineffective as with common Western belief. In Transparency.org's 2023 Corruption Perceptions Index (CPI) Report, countries as such Seychelles, Cape Verde, and Botswana had better CPI scores than the United States, Israel, and Italy respectively. While there are several African countries with low CPI scores, pushes for new leadership by citizens has helped bring in a new wave of less biased officals. Since the 1990s, Ghana adopted a new democratic constitution, emphasizing checks and balnces. Compared to some Western countries that have never elected a female head of state, 22 heads of state in Africa have been female. Currently, there are 5 heads of state: Tanzania's Samia Suluhu Sahan, Ethiopia's Sahle-Work Zewde (prior to October 2024), Namibia's  Saara Kuugongelwa, and Uganda's Robinah Nabbanja. (pictures of government throughout) Eswatini and Lesotho are unique in that their heads of state are monarchs.  Eswatini has the last absolute monarchy of Africa. Ghanian Kofi Annan was the 7th secretary-general of the United Nations, earning a Nobel Peace Prize with the international organization. Admittedly, in the midst of Africa's democratic progress coups in Niger and Gabon overshadow such things. The Scramble of Africa in the 19th century directly contributed to increased political violence and tensions due to ethnic partitioning and bad foundations for governments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One unfortunate stereotype that may come up often about Africa is that Africans speak "African". On the contrary,  Africa is home to over 2,000 languages making up approximately 1/3 of the world's languages. Only Asia is believed to have slightly more. Nigeria alone has 520+ recognized languages. At least 75 languages in Africa have more than 1 million speakers. Each of these languages come from unique and various influences over centuries. Swahili was influenced by the Bantu and Arabic languages. Some countries have primary languages derived from their colonizer like Djibouti where one of the official languages is French. In Nigeria students are often taught English very similar to British English due to British colonization decades ago. Visit our general information map on the home page to see what the main languages and ethnic groups of each country are. This includes the official and unofficial languages spoken by a significant portion of the population. Over 24 countries in Africa have English as an official language. Children often learn English and the language belonging to their ethnic group.  Visit the education section to learn more about children's education. There is not a confirmed number of ethnic groups in Africa as they are divided by European-designed boundaries, have offshoots, have been muted, and cover multiple countries and regions. In Northern Africa, people speak mostly speak languages belonging to the Afro-Asiatic language family. The Berbers and Arabs are some of the notable groups of this region. The Arab people migrated to North Africa from Arabia centuries ago, leading to a unique Arabian culture in the North African region that is different from those in the Middle East. The dominant religion is Islam. Here another stereotype should be noted. Some people may not be aware of the different races within Africa that are not just "black". People from North Africa may not look "black" but are still 100% African. (picture of North Africans) West Africa has a startling diversity of ethnic groups within the region. Some parts of the region may consist of the largely populated Hausa and Fulani to smaller hard to contact ethnic groups. These groups may also come from formerly powerful kingdoms such as the Yoruba. The majority of people in this region believe in Islam or Christianity. Due to colonization efforts of previous centuries, folk religion became a muted minority in all of Africa. The majority of Africans follow Christianity, deriving from colonization efforts or Islam deriving from immigration centuries prior when Arabs traveled to Africa for pilgrimage, trade, and other things. The famous Mali king Mansa Musa did a pilgrimage to Mecca, showing off his large sums of gold with the region. In Central Africa, the official languages are mostly Portuguese, French, and Spanish. In here and Southern Africa, the Khoisan-speaking peoples who are known for their clicking sounds formerly populated this region. Looking at Eastern Africa, one may be shocked to see one unique influence present in the region. In Seychelles, the ethnic groups are influenced by India and Chinese influences. Eastern African had lots of trade during the (something century) due to their prime location. The Somali language in Somalia  was partly influenced by Arabic and Italian. You can see Indian influences and similarities with President Prithvirajsing Roopun of Mauritius's name. In Southern Africa click-consonant languages like Xhosa and Zulu are some of the most widely spoken. Afrikaans, which is spoken in the country of South Africa is a language that can be traced to Dutch. South African is dominated by Christianity. Madagascar is unique from the regions of mainland Africa in that its Malagasy ethnic gropus mostly originate from Indonesia. The Malagasy language itself is considered Austronesian. Going back to folk religion,  it is often believed that Africans practice traditional religions. This not necessarily true. Africans typically practice Islam or Christianity but mayadapt these religions to certain cultural and spritual aspects of the folk religion their ancestors used to have. Some people may use withcraft and myths to explain unnatural events but typically do not override their primary religion. Priests, clan elders, prophets, rainmakers, and other like-minded individuals mostly reside in rural regions not urban or surburban communities. While in the past, some societies were matrilineal, having iconic female leaders long before kingdoms of other countries, a patriarchal system consisting of violence and polygamy is quite prominent in the modern era. (statistics of domestic violence in Africa and such). However, this should not be considered as a catch-all. Families all over the continent and the world have different values, beliefs, and interactions with each other. Explore some of the traditions of some of the most popular ethnic groups of Africa here. </t>
+  </si>
+  <si>
+    <t>3.2 million Africans were displaced in 2023 due to several conflicts between state governments and militant groups, mostly Islamic ones. This is a blanket statement and doesn't recognize some important things to consider. These conflicts developed from complicated and complex situations. More often than not, they also developed and were brewing long before they appeared on national television. One cannot discuss conflicts in Africa without recognizing the intracacies of the various situations. The causes of these conflicts vary differently from one another. In West African countries such as Mali and Nigeria, recent corrupt governments have allowed Islamic militants to fill up the vacuum left by the government. In Sudan, the current conflict between the Rapid Support Forces and the Sudanese government is the latest branch stemming from the remnants of the Darfur Crisis and a coup a few years ago. With misinformation and a lack of awareness, one may be inclined to believe certain negative stereotypes. For starters, the common and inappropriate stereotype that all Muslims are extremists and terrorists is very incorrect. While Islamic militant groups may be part of several conflicts on the continent, they do not represent the Muslim population in Africa. Separating the two groups while understanding their similarities is something important to recognize. One analogy to think of is that while the Ku Klux Klan consists of Christian members, they do not represent the beliefs or values of all Christians. Another stereotype to consider is that Africa is an unsafe continent. As previously stated, Africa is a complex continent and while people from some countries or specific regions may be dealing with certain dangerous and harmful conflicts, many more Africans  elsewhere are living ordinary lives much like those in Western nations. One analogy to consider is how in Europe, there are several conflicts in the Eastern European region that have occurred within the past decade but that does not take away from the fact that many Europeans live regular lives and are wholly unaffected or are not as affected by the infamous conflict(s) as perceived on television. Studying resources from human rights organizations, news organizations in the involved countries, Africa-based &amp; centered organizations and non-biased organizations will help one gain a better and more holistic understanding of the situation at hand. Another important resource, one likely more important than those previously mentioned, is the accounts of the people who are living and have lived through the situation you are hearing about.</t>
+  </si>
+  <si>
+    <t>https://education.nationalgeographic.org/resource/africa-physical-geography/</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/place/Africa/Climate#ref37158</t>
+  </si>
+  <si>
+    <t>https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/internet-access-connectivity-africa/</t>
+  </si>
+  <si>
+    <t>https://www.transparency.org/en/cpi/2023</t>
+  </si>
+  <si>
+    <t>https://www.bu.edu/africa/outreach/teachingresources/literature-language-arts/language/#:~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula</t>
+  </si>
+  <si>
+    <t>https://africacenter.org/spotlight/african-conflicts-displace-over-40-million-people/</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/results/2023/06/27/from-connectivity-to-services-digital-transformation-in-africa</t>
+  </si>
+  <si>
+    <t>https://www.brookings.edu/articles/good-and-inclusive-governance-is-imperative-for-africas-future/</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/15-african-countries-english-official-101756305.html#:~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier.</t>
+  </si>
+  <si>
+    <t>https://www.unrefugees.org/news/sudan-crisis-explained/</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1124283/internet-penetration-in-africa-by-country/</t>
+  </si>
+  <si>
+    <t>https://cepr.org/voxeu/columns/contemporary-shadow-scramble-africa</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1280625/number-of-living-languages-in-africa-by-country/</t>
+  </si>
+  <si>
+    <t>https://hmh.org/library/research/genocide-in-darfur-guide/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +142,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,12 +175,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -132,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,53 +490,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -480,9 +627,23 @@
     <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{7B1BD39A-D5B8-4261-B5CC-066A35FAC2BC}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{328CCE0F-CB93-49A9-9BC7-582E004931DD}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{C3A44A77-6113-4EB1-9A74-372A8A52F9DC}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.imf.org/external/datamapper/NGDP_RPCH@WEO/AFQ/ADVEC?year=2024" xr:uid="{BF7FABAB-7BBE-4BEA-9C46-5DBD26C8DE99}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5B9A1639-C103-4132-9D6F-55AA0B0AFDAE}"/>
+    <hyperlink ref="C3" r:id="rId3" location="ref37158" display="https://www.britannica.com/place/Africa/Climate - ref37158" xr:uid="{131EE20D-6775-4278-A4CA-7BDA4E4794C0}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{6D2CCDC3-96A8-48BE-AAE0-9155973E2362}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{EB975491-94D3-467D-9BAD-5F358C759F3B}"/>
+    <hyperlink ref="F3" r:id="rId6" location=":~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula" display="https://www.bu.edu/africa/outreach/teachingresources/literature-language-arts/language/ - :~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula" xr:uid="{A3C7EEA5-AC05-4777-B222-2CACC6AF6708}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{A2972547-F6E7-4710-81F1-05227EB2926A}"/>
+    <hyperlink ref="A4" r:id="rId8" xr:uid="{F42D49C9-34CA-4DAD-834C-C8971184C4C2}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{4C3A4AEE-D0D7-4444-A252-86942F215B6D}"/>
+    <hyperlink ref="E4" r:id="rId10" xr:uid="{DC6AD256-7AAF-4150-A892-374CE210C059}"/>
+    <hyperlink ref="F4" r:id="rId11" location=":~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier" display="https://finance.yahoo.com/news/15-african-countries-english-official-101756305.html - :~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier" xr:uid="{7D4A6B5D-D3F7-4C8A-B39F-CE606B18A9F4}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{CF9A041A-69AD-4972-95EB-CCC9A483E376}"/>
+    <hyperlink ref="A5" r:id="rId13" display="https://www.forbes.com/lists/africa-billionaires/" xr:uid="{27815E73-83CC-479E-A0BB-AA9379775132}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{916FA0A5-2625-4E48-A364-6F4817CAF459}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{9A481D65-1870-496F-9B53-09EF455734D3}"/>
+    <hyperlink ref="F5" r:id="rId16" xr:uid="{573C27AC-313F-4379-9140-C8E87BE10291}"/>
+    <hyperlink ref="G5" r:id="rId17" xr:uid="{8562A345-BDFB-40E7-8CA1-AA7019EBEA01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5e2521e471d018/Documents/GitHub/all-about-africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC1C972-769B-40A3-97E8-B09FCEE2727C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_61D01FC509757F6C48BE0E48EBE04F4AB30E4D20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F40EAC1-D380-4AA0-A023-8E43336CAFDF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Economy</t>
   </si>
@@ -51,86 +46,218 @@
     <t>Healthcare</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.imf.org/external/datamapper/NGDP_RPCH@WEO/AFQ/ADVEC?year=2024 </t>
-  </si>
-  <si>
     <t>Infrastructure</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stereotype:  Africans are a poor people. </t>
+  </si>
+  <si>
+    <t>Stereotype: Africa is covered by desert and savannah.</t>
+  </si>
+  <si>
+    <t>Stereotype: Africa is only hot like the desert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the International Monetary Fund, the economies of African countries overall are growing their real GDP at a faster rate than countries that are considered to have advanced economies. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. </t>
+  </si>
+  <si>
+    <t>Africa is neither a continent covered solely by desert or savannah. There are 8 different physical regions in Africa which can be explored here: the Sahara, the Sahel, the Ethiopian Highlands, savannas, the Swahili Coast, rainforests, the African Great Lakes, and Southern Africa.  Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria. (picture of Lake Victoria) Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments are looking to harness the power of river and lakes to create hydroelectric power. Southern Africa, not to be mistaken with the country of South Africa is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's reserves, providing jobs and revenue. The Cape Floral Region is home to nearly 20% of Africa's flora. (list of animals in each region) The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa is not wholly a hot and arid continent. Considering all factors Africa has 8 different climatic regions:  the hot desert, semiarid, tropical wet-and-dry, equatorial, Mediterranean, humid subtropical marine, warm temperate upland, and mountain regions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One common stereotype about Africa is that Africans do not have internet access. However this general statement does not highlight the true realities of internet access. 64% of urban people in Africa use internet. However this varies between countries. Morocco's share of internet users is 90.7% while the Central African Republic's is 10.6%. By 2029 Internet is expected to reach over 1.1 billion people in Africa. The growth of internet access hasn't slowed down over the past couple of years. (diplo chart about internet penetration). Some African countries even have 5G access. (diplo chart about 5g) African governments have been improving internet access by adding satellites, mobile networks, and cables to give as much access as possible. Fibre optics has tripled between 2010 and 2020. Nigeria has the 6th highest number of mobile cellular telephone subscribers at 222,225,000 subscribers. In 2013 the World Bank and African Development Bank reported that there were 650 million mobile users in Africa, surpassing the U.S. and Europe.  While having the highest internet prices in the world, prices are going down but speed is increasing due to increased development of digital infrastructure. 38 million people used Facebook in 2011. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">African governments are not filled with corruption and are ineffective as with common Western belief. In Transparency.org's 2023 Corruption Perceptions Index (CPI) Report, countries as such Seychelles, Cape Verde, and Botswana had better CPI scores than the United States, Israel, and Italy respectively. While there are several African countries with low CPI scores, pushes for new leadership by citizens has helped bring in a new wave of less biased officals. Since the 1990s, Ghana adopted a new democratic constitution, emphasizing checks and balnces. Compared to some Western countries that have never elected a female head of state, 22 heads of state in Africa have been female. Currently, there are 5 heads of state: Tanzania's Samia Suluhu Sahan, Ethiopia's Sahle-Work Zewde (prior to October 2024), Namibia's  Saara Kuugongelwa, and Uganda's Robinah Nabbanja. (pictures of government throughout) Eswatini and Lesotho are unique in that their heads of state are monarchs.  Eswatini has the last absolute monarchy of Africa. Ghanian Kofi Annan was the 7th secretary-general of the United Nations, earning a Nobel Peace Prize with the international organization. Admittedly, in the midst of Africa's democratic progress coups in Niger and Gabon overshadow such things. The Scramble of Africa in the 19th century directly contributed to increased political violence and tensions due to ethnic partitioning and bad foundations for governments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One unfortunate stereotype that may come up often about Africa is that Africans speak "African". On the contrary,  Africa is home to over 2,000 languages making up approximately 1/3 of the world's languages. Only Asia is believed to have slightly more. Nigeria alone has 520+ recognized languages. At least 75 languages in Africa have more than 1 million speakers. Each of these languages come from unique and various influences over centuries. Swahili was influenced by the Bantu and Arabic languages. Some countries have primary languages derived from their colonizer like Djibouti where one of the official languages is French. In Nigeria students are often taught English very similar to British English due to British colonization decades ago. Visit our general information map on the home page to see what the main languages and ethnic groups of each country are. This includes the official and unofficial languages spoken by a significant portion of the population. Over 24 countries in Africa have English as an official language. Children often learn English and the language belonging to their ethnic group.  Visit the education section to learn more about children's education. There is not a confirmed number of ethnic groups in Africa as they are divided by European-designed boundaries, have offshoots, have been muted, and cover multiple countries and regions. In Northern Africa, people speak mostly speak languages belonging to the Afro-Asiatic language family. The Berbers and Arabs are some of the notable groups of this region. The Arab people migrated to North Africa from Arabia centuries ago, leading to a unique Arabian culture in the North African region that is different from those in the Middle East. The dominant religion is Islam. Here another stereotype should be noted. Some people may not be aware of the different races within Africa that are not just "black". People from North Africa may not look "black" but are still 100% African. (picture of North Africans) West Africa has a startling diversity of ethnic groups within the region. Some parts of the region may consist of the largely populated Hausa and Fulani to smaller hard to contact ethnic groups. These groups may also come from formerly powerful kingdoms such as the Yoruba. The majority of people in this region believe in Islam or Christianity. Due to colonization efforts of previous centuries, folk religion became a muted minority in all of Africa. The majority of Africans follow Christianity, deriving from colonization efforts or Islam deriving from immigration centuries prior when Arabs traveled to Africa for pilgrimage, trade, and other things. The famous Mali king Mansa Musa did a pilgrimage to Mecca, showing off his large sums of gold with the region. In Central Africa, the official languages are mostly Portuguese, French, and Spanish. In here and Southern Africa, the Khoisan-speaking peoples who are known for their clicking sounds formerly populated this region. Looking at Eastern Africa, one may be shocked to see one unique influence present in the region. In Seychelles, the ethnic groups are influenced by India and Chinese influences. Eastern African had lots of trade during the (something century) due to their prime location. The Somali language in Somalia  was partly influenced by Arabic and Italian. You can see Indian influences and similarities with President Prithvirajsing Roopun of Mauritius's name. In Southern Africa click-consonant languages like Xhosa and Zulu are some of the most widely spoken. Afrikaans, which is spoken in the country of South Africa is a language that can be traced to Dutch. South African is dominated by Christianity. Madagascar is unique from the regions of mainland Africa in that its Malagasy ethnic gropus mostly originate from Indonesia. The Malagasy language itself is considered Austronesian. Going back to folk religion,  it is often believed that Africans practice traditional religions. This not necessarily true. Africans typically practice Islam or Christianity but mayadapt these religions to certain cultural and spritual aspects of the folk religion their ancestors used to have. Some people may use withcraft and myths to explain unnatural events but typically do not override their primary religion. Priests, clan elders, prophets, rainmakers, and other like-minded individuals mostly reside in rural regions not urban or surburban communities. While in the past, some societies were matrilineal, having iconic female leaders long before kingdoms of other countries, a patriarchal system consisting of violence and polygamy is quite prominent in the modern era. (statistics of domestic violence in Africa and such). However, this should not be considered as a catch-all. Families all over the continent and the world have different values, beliefs, and interactions with each other. Explore some of the traditions of some of the most popular ethnic groups of Africa here. </t>
+  </si>
+  <si>
+    <t>3.2 million Africans were displaced in 2023 due to several conflicts between state governments and militant groups, mostly Islamic ones. This is a blanket statement and doesn't recognize some important things to consider. These conflicts developed from complicated and complex situations. More often than not, they also developed and were brewing long before they appeared on national television. One cannot discuss conflicts in Africa without recognizing the intracacies of the various situations. The causes of these conflicts vary differently from one another. In West African countries such as Mali and Nigeria, recent corrupt governments have allowed Islamic militants to fill up the vacuum left by the government. In Sudan, the current conflict between the Rapid Support Forces and the Sudanese government is the latest branch stemming from the remnants of the Darfur Crisis and a coup a few years ago. With misinformation and a lack of awareness, one may be inclined to believe certain negative stereotypes. For starters, the common and inappropriate stereotype that all Muslims are extremists and terrorists is very incorrect. While Islamic militant groups may be part of several conflicts on the continent, they do not represent the Muslim population in Africa. Separating the two groups while understanding their similarities is something important to recognize. One analogy to think of is that while the Ku Klux Klan consists of Christian members, they do not represent the beliefs or values of all Christians. Another stereotype to consider is that Africa is an unsafe continent. As previously stated, Africa is a complex continent and while people from some countries or specific regions may be dealing with certain dangerous and harmful conflicts, many more Africans  elsewhere are living ordinary lives much like those in Western nations. One analogy to consider is how in Europe, there are several conflicts in the Eastern European region that have occurred within the past decade but that does not take away from the fact that many Europeans live regular lives and are wholly unaffected or are not as affected by the infamous conflict(s) as perceived on television. Studying resources from human rights organizations, news organizations in the involved countries, Africa-based &amp; centered organizations and non-biased organizations will help one gain a better and more holistic understanding of the situation at hand. Another important resource, one likely more important than those previously mentioned, is the accounts of the people who are living and have lived through the situation you are hearing about.</t>
+  </si>
+  <si>
+    <t>Africa notoriously has numerous health crises compared to other continents. Some of the world's highest rates of maternal mortality, malnutrition, and infectious disease deaths all reside in Africa. However, Africa's health is improving and has a positive outlook for the future. In 2019, the life expectancy increased by 10 years for both men and women from 2000. Universal health coverage is on a rise with 6 countries in Africa now having a UHC service coverage index in the "green" compared to 1 in 2000. However, out-of-pocket expenditure for most African countries has increased. 56.3% of women in a relationship or are married used modern family planning methods (i.e. contraceptives). 43.7% of women still don't have access to modern contraceptive methods. (insert contraceptive chart) 11 countries in Africa have not reached 50% coverage in antenatal care. There is 87% coverage of mother-to-child transmission of HIV which is amongst the highest in the world. According to the WHO, Africa has made "tremendous gains" in increasing access to immunization and reducing child mortality rates. Many diseases such as polio, maternal tetanus, and neonatal tetanus are about to be extinct. Unfortunately, immunization coverage rates have reached a stalemate.  (immunization coverage chart)</t>
+  </si>
+  <si>
+    <t>The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live.</t>
+  </si>
+  <si>
+    <t>https://cdn.britannica.com/51/196351-050-31AB5275/climate-Africa-desert-conditions-fringes-stretches-portion.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/86/Desert_Sahara_sand.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hot desert region can be characterized by aridity and high average monthly temperatures. The Sahara, Kalahari, and Somali deserts make up this region. However with climate change causing unusual changes in weather patterns, leading to things like the hot desert region flooding, we could soon be changing our views on the characteristics of these climatic regions. </t>
+  </si>
+  <si>
+    <t>static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+  </si>
+  <si>
+    <t>The Sahel is a narrow band that is the barrier between the Sahara and the savannas. It ranges from Senegal to Sudan. It contains the Niger River delta. Through drought, deforestation, and intensive agriculture, the Sahel is being desertified. (picture)</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/4710/28041822759_393487798b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/internet-access-connectivity-africa/</t>
+  </si>
+  <si>
+    <t>https://www.transparency.org/en/cpi/2023</t>
+  </si>
+  <si>
+    <t>https://www.bu.edu/africa/outreach/teachingresources/literature-language-arts/language/#:~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula</t>
+  </si>
+  <si>
+    <t>https://africacenter.org/spotlight/african-conflicts-displace-over-40-million-people/</t>
+  </si>
+  <si>
+    <t>Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010. Many Africans are making a substantial living in major urban cities which can be explored in our infrastructure section. The poverty rate is declining as many countries' economies continue to develop and grow. There is a vast array of white collar jobs that contribute to the running of the economy.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/5596/14980244297_0f27d9e15e_b.jpg</t>
+  </si>
+  <si>
+    <t>The semiarid regions are similar to the desert regions in temperature but are not true desert due to receiving more rainfall. This region includes the greater part of the land south of the Zambezi River.</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/results/2023/06/27/from-connectivity-to-services-digital-transformation-in-africa</t>
+  </si>
+  <si>
+    <t>https://www.brookings.edu/articles/good-and-inclusive-governance-is-imperative-for-africas-future/</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/15-african-countries-english-official-101756305.html#:~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier.</t>
+  </si>
+  <si>
+    <t>https://www.unrefugees.org/news/sudan-crisis-explained/</t>
+  </si>
+  <si>
     <t>https://carnegie-production-assets.s3.amazonaws.com/static/media/images/Africa_Chart_May.png</t>
   </si>
   <si>
+    <t>The Ethiopian Highlands rose 75 million years ago as magma. The Great Rift Valley System was formed after Africa's continental crust pulled apart. 80 percent of Africa's tallest mountains reside in the Highlands. One unique animal that some may not think resides in Africa is the Ethiopian wolf. (ethiopian wolf picture)</t>
+  </si>
+  <si>
+    <t>The tropical wet-and-dry region, more popularly known as the savanna region, incorrectly suggest that everywhere with savanna vegetation has this climate. This region covers a little less than 50% of the continent's total surface area. 6 months of rainfall characterize this region. Some places may have little rainfall during the low sun period however. The mean monthly temperatures have little variation. In western Africa, the harmattan season directs the period of low sun. The harmattan is a warm, dry, easterly or northeasterly wind from the Sahara, bringing with it lots of sand and dust.</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1124283/internet-penetration-in-africa-by-country/</t>
+  </si>
+  <si>
+    <t>https://cepr.org/voxeu/columns/contemporary-shadow-scramble-africa</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1280625/number-of-living-languages-in-africa-by-country/</t>
+  </si>
+  <si>
+    <t>https://hmh.org/library/research/genocide-in-darfur-guide/</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/51707265922_9109204e07_b.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/64/Harmattan._Dust._Fishing_Pirougues._Senegal.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cia.gov/the-world-factbook/field/telephones-mobile-cellular/country-comparison/</t>
+  </si>
+  <si>
+    <t>https://www.chathamhouse.org/2021/09/terrorism-africa#:~:text=Islamic%20terrorism%20in%20Africa&amp;text=Insurgent%20groups%20are%20often%20riven,by%20any%20international%20jihadist%20mission.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.forbes.com/lists/africa-billionaires/ </t>
   </si>
   <si>
-    <t>According to the International Monetary Fund, the economies of African countries overall are growing their real GDP at a faster rate than countries that are considered to have advanced economies. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010.  Despite the fact that 23 of the poorest countries in the world come from Africa, it is an incorrect statement to say that ALL Africans are poor and are barely surviving.  Many Africans are making a substantial living in major urban cities which can be explored in our infrastructure section.  The poverty rate is declining as many countries' economies continue to develop and grow. There is a vast array of white collar jobs that contribute to the running of the economy.</t>
-  </si>
-  <si>
-    <t>Africa is neither a continent covered solely by desert or savannah. (Africa land map with different terrains). There are 8 different physical regions in Africa: the Sahara, the Sahel, the Ethiopian Highlands, savannas, the Swahili Coast, rainforests, the African Great Lakes, and Southern Africa. The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live. (picture) The Sahel is a narrow band that is the barrier between the Sahara and the savannas. It ranges from Senegal to Sudan. It contains the Niger River delta. Through drought, deforestation, and intensive agriculture, the Sahel is being desertified. (picture) The Ethiopian Highlands rose 75 million years ago as magma. The Great Rift Valley System was formed after Africa's continental crust pulled apart. 80 percent of Africa's tallest mountains reside in the Highlands. One unique animal that some may not think resides in Africa is the Ethiopian wolf. (ethiopian wolf picture) The savannas comprise almost half of Africa, beginning south of the Sahel and ending just north of the continent's southern tip. The most popular savanna region is the Serengeti Plains. Afirca's highest concentrations of large mammal species reside there. However, the savanna lands are decreasing due to a desire for more agriculture. (picture) The Swahili Coast  stretches along the coast of Kenya, Mozambique, and Tanzania. Areas of the Coast are centers for trade and water travel. Major international include Dar es Salaam and Mombasa. (picture of international port) Mangrove forests are the most common form of vegetation in the Swahili Coast. (picture) The rainforests of Africa are known for their rich  biodiversity. (biodiversity map) Some indigenous rainforest groups live off the forest's provisions but have little content with the urban populations. Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria. (picture of Lake Victoria) Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments are looking to harness the power of river and lakes to create hydroelectric power. Southern Africa, not to be mistaken with the country of South Africa is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's reserves, providing jobs and revenue. The Cape Floral Region is home to nearly 20% of Africa's flora. (list of animals in each region) The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa is not wholly a hot and arid continent. Considering all factors Africa has 8 different climatic regions:  the hot desert, semiarid, tropical wet-and-dry, equatorail, Mediterranean, humid subtropical marine, warm temperate upland, and mountain regions (insert britannica climate picture). The hot desert region can be characterized by aridity and high average monthly temperatures. The Sahara, Kalahari, and Somali deserts make up this region.  The semiarid regions are similar to the desert regions in temperature but are not true desert due to receiving more rainfall. This region includes the greater part of the land south of the Zambezi River.  The tropical wet-and-dry region, more popularly known as the savanna region, incorrectly suggest that everywhere with savanna vegetation has this climate. This region covers a little less than 50% of the continent's total surface area. 6 months of rainfall characterize this region. Some places may have little rainfall during the low sun period however. The mean monthly temperatures have little variation. In western Africa, the harmattan season directs the period of low sun. The harmattan is a warm, dry, easterly or northeasterly wind from the Sahara, bringing with it lots of sand and dust. Equatorial regions are the wettest in Africa. There are specifically two peak periods of rainfall. Variations in temperature are typically less pronounced than the tropical wet-and-dry regions but sometimes one rainy season may be monsoonal and the other near nonexistent. The Mediterranean or dry summer subtropical region covers the northern and southern extremes of Africa. Rain falls during the winter. Monthly temperatures are lower than tropical climates on average dropping to roughly 50 degrees Fahrenheit in the winter. Summer temperatures, however, may exceed that of tropical climates. Clear blue skies are also another characteristic of this climatic region. The humid subtropical marine climate is restricted to the southeast coast of Africa. Rain falls throughout the year, reaching its heaviest amounts during the summer. The warm temperate upland climatic region is found on the Highveld of Southern Africa. The rainfall is similar to the tropical wet-and-dry climate but temperatures are dependent on altitude.  The mountain climatic region covers the high mountains of Ethiopia and the lakes of EAst Africa. This climate is similar to the warm temperate upland climate minus the fact that temperatures can be lower because of mountains like Mt. Kilimanjaro. Rainfall is similar to that of the adjacent lowland areas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One common stereotype about Africa is that Africans do not have internet access. However this general statement does not highlight the true realities of internet access. 64% of urban people in Africa use internet. However this varies between countries. Morocco's share of internet users is 90.7% while the Central African Republic's is 10.6%. By 2029 Internet is expected to reach over 1.1 billion people in Africa. The growth of internet access hasn't slowed down over the past couple of years. (diplo chart about internet penetration). Some African countries even have 5G access. (diplo chart about 5g) African governments have been improving internet access by adding satellites, mobile networks, and cables to give as much access as possible. Fibre optics has tripled between 2010 and 2020. Nigeria has the 6th highest number of mobile cellular telephone subscribers at 222,225,000 subscribers. In 2013 the World Bank and African Development Bank reported that there were 650 million mobile users in Africa, surpassing the U.S. and Europe.  While having the highest internet prices in the world, prices are going down but speed is increasing due to increased development of digital infrastructure. 38 million people used Facebook in 2011. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">African governments are not filled with corruption and are ineffective as with common Western belief. In Transparency.org's 2023 Corruption Perceptions Index (CPI) Report, countries as such Seychelles, Cape Verde, and Botswana had better CPI scores than the United States, Israel, and Italy respectively. While there are several African countries with low CPI scores, pushes for new leadership by citizens has helped bring in a new wave of less biased officals. Since the 1990s, Ghana adopted a new democratic constitution, emphasizing checks and balnces. Compared to some Western countries that have never elected a female head of state, 22 heads of state in Africa have been female. Currently, there are 5 heads of state: Tanzania's Samia Suluhu Sahan, Ethiopia's Sahle-Work Zewde (prior to October 2024), Namibia's  Saara Kuugongelwa, and Uganda's Robinah Nabbanja. (pictures of government throughout) Eswatini and Lesotho are unique in that their heads of state are monarchs.  Eswatini has the last absolute monarchy of Africa. Ghanian Kofi Annan was the 7th secretary-general of the United Nations, earning a Nobel Peace Prize with the international organization. Admittedly, in the midst of Africa's democratic progress coups in Niger and Gabon overshadow such things. The Scramble of Africa in the 19th century directly contributed to increased political violence and tensions due to ethnic partitioning and bad foundations for governments. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One unfortunate stereotype that may come up often about Africa is that Africans speak "African". On the contrary,  Africa is home to over 2,000 languages making up approximately 1/3 of the world's languages. Only Asia is believed to have slightly more. Nigeria alone has 520+ recognized languages. At least 75 languages in Africa have more than 1 million speakers. Each of these languages come from unique and various influences over centuries. Swahili was influenced by the Bantu and Arabic languages. Some countries have primary languages derived from their colonizer like Djibouti where one of the official languages is French. In Nigeria students are often taught English very similar to British English due to British colonization decades ago. Visit our general information map on the home page to see what the main languages and ethnic groups of each country are. This includes the official and unofficial languages spoken by a significant portion of the population. Over 24 countries in Africa have English as an official language. Children often learn English and the language belonging to their ethnic group.  Visit the education section to learn more about children's education. There is not a confirmed number of ethnic groups in Africa as they are divided by European-designed boundaries, have offshoots, have been muted, and cover multiple countries and regions. In Northern Africa, people speak mostly speak languages belonging to the Afro-Asiatic language family. The Berbers and Arabs are some of the notable groups of this region. The Arab people migrated to North Africa from Arabia centuries ago, leading to a unique Arabian culture in the North African region that is different from those in the Middle East. The dominant religion is Islam. Here another stereotype should be noted. Some people may not be aware of the different races within Africa that are not just "black". People from North Africa may not look "black" but are still 100% African. (picture of North Africans) West Africa has a startling diversity of ethnic groups within the region. Some parts of the region may consist of the largely populated Hausa and Fulani to smaller hard to contact ethnic groups. These groups may also come from formerly powerful kingdoms such as the Yoruba. The majority of people in this region believe in Islam or Christianity. Due to colonization efforts of previous centuries, folk religion became a muted minority in all of Africa. The majority of Africans follow Christianity, deriving from colonization efforts or Islam deriving from immigration centuries prior when Arabs traveled to Africa for pilgrimage, trade, and other things. The famous Mali king Mansa Musa did a pilgrimage to Mecca, showing off his large sums of gold with the region. In Central Africa, the official languages are mostly Portuguese, French, and Spanish. In here and Southern Africa, the Khoisan-speaking peoples who are known for their clicking sounds formerly populated this region. Looking at Eastern Africa, one may be shocked to see one unique influence present in the region. In Seychelles, the ethnic groups are influenced by India and Chinese influences. Eastern African had lots of trade during the (something century) due to their prime location. The Somali language in Somalia  was partly influenced by Arabic and Italian. You can see Indian influences and similarities with President Prithvirajsing Roopun of Mauritius's name. In Southern Africa click-consonant languages like Xhosa and Zulu are some of the most widely spoken. Afrikaans, which is spoken in the country of South Africa is a language that can be traced to Dutch. South African is dominated by Christianity. Madagascar is unique from the regions of mainland Africa in that its Malagasy ethnic gropus mostly originate from Indonesia. The Malagasy language itself is considered Austronesian. Going back to folk religion,  it is often believed that Africans practice traditional religions. This not necessarily true. Africans typically practice Islam or Christianity but mayadapt these religions to certain cultural and spritual aspects of the folk religion their ancestors used to have. Some people may use withcraft and myths to explain unnatural events but typically do not override their primary religion. Priests, clan elders, prophets, rainmakers, and other like-minded individuals mostly reside in rural regions not urban or surburban communities. While in the past, some societies were matrilineal, having iconic female leaders long before kingdoms of other countries, a patriarchal system consisting of violence and polygamy is quite prominent in the modern era. (statistics of domestic violence in Africa and such). However, this should not be considered as a catch-all. Families all over the continent and the world have different values, beliefs, and interactions with each other. Explore some of the traditions of some of the most popular ethnic groups of Africa here. </t>
-  </si>
-  <si>
-    <t>3.2 million Africans were displaced in 2023 due to several conflicts between state governments and militant groups, mostly Islamic ones. This is a blanket statement and doesn't recognize some important things to consider. These conflicts developed from complicated and complex situations. More often than not, they also developed and were brewing long before they appeared on national television. One cannot discuss conflicts in Africa without recognizing the intracacies of the various situations. The causes of these conflicts vary differently from one another. In West African countries such as Mali and Nigeria, recent corrupt governments have allowed Islamic militants to fill up the vacuum left by the government. In Sudan, the current conflict between the Rapid Support Forces and the Sudanese government is the latest branch stemming from the remnants of the Darfur Crisis and a coup a few years ago. With misinformation and a lack of awareness, one may be inclined to believe certain negative stereotypes. For starters, the common and inappropriate stereotype that all Muslims are extremists and terrorists is very incorrect. While Islamic militant groups may be part of several conflicts on the continent, they do not represent the Muslim population in Africa. Separating the two groups while understanding their similarities is something important to recognize. One analogy to think of is that while the Ku Klux Klan consists of Christian members, they do not represent the beliefs or values of all Christians. Another stereotype to consider is that Africa is an unsafe continent. As previously stated, Africa is a complex continent and while people from some countries or specific regions may be dealing with certain dangerous and harmful conflicts, many more Africans  elsewhere are living ordinary lives much like those in Western nations. One analogy to consider is how in Europe, there are several conflicts in the Eastern European region that have occurred within the past decade but that does not take away from the fact that many Europeans live regular lives and are wholly unaffected or are not as affected by the infamous conflict(s) as perceived on television. Studying resources from human rights organizations, news organizations in the involved countries, Africa-based &amp; centered organizations and non-biased organizations will help one gain a better and more holistic understanding of the situation at hand. Another important resource, one likely more important than those previously mentioned, is the accounts of the people who are living and have lived through the situation you are hearing about.</t>
-  </si>
-  <si>
-    <t>https://education.nationalgeographic.org/resource/africa-physical-geography/</t>
-  </si>
-  <si>
-    <t>https://www.britannica.com/place/Africa/Climate#ref37158</t>
-  </si>
-  <si>
-    <t>https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/internet-access-connectivity-africa/</t>
-  </si>
-  <si>
-    <t>https://www.transparency.org/en/cpi/2023</t>
-  </si>
-  <si>
-    <t>https://www.bu.edu/africa/outreach/teachingresources/literature-language-arts/language/#:~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula</t>
-  </si>
-  <si>
-    <t>https://africacenter.org/spotlight/african-conflicts-displace-over-40-million-people/</t>
-  </si>
-  <si>
-    <t>https://www.worldbank.org/en/results/2023/06/27/from-connectivity-to-services-digital-transformation-in-africa</t>
-  </si>
-  <si>
-    <t>https://www.brookings.edu/articles/good-and-inclusive-governance-is-imperative-for-africas-future/</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/15-african-countries-english-official-101756305.html#:~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier.</t>
-  </si>
-  <si>
-    <t>https://www.unrefugees.org/news/sudan-crisis-explained/</t>
-  </si>
-  <si>
-    <t>https://www.statista.com/statistics/1124283/internet-penetration-in-africa-by-country/</t>
-  </si>
-  <si>
-    <t>https://cepr.org/voxeu/columns/contemporary-shadow-scramble-africa</t>
-  </si>
-  <si>
-    <t>https://www.statista.com/statistics/1280625/number-of-living-languages-in-africa-by-country/</t>
-  </si>
-  <si>
-    <t>https://hmh.org/library/research/genocide-in-darfur-guide/</t>
+    <t>https://s3.animalia.bio/animals/photos/full/original/1620px-ethiopian-wolf-canis-simensis-citernii-2jpg.webp</t>
+  </si>
+  <si>
+    <t>Equatorial regions are the wettest in Africa. There are specifically two peak periods of rainfall. Variations in temperature are typically less pronounced than the tropical wet-and-dry regions but sometimes one rainy season may be monsoonal and the other near nonexistent.</t>
+  </si>
+  <si>
+    <t>https://www.un.org/africarenewal/magazine/may-2013/africa%E2%80%99s-mobile-youth-drive-change#:~:text=Cell%20phones%20today%20are%20nearly,the%20United%20States%20or%20Europe.</t>
+  </si>
+  <si>
+    <t>https://www.pewresearch.org/short-reads/2021/09/01/muslims-are-a-growing-presence-in-u-s-but-still-face-negative-views-from-the-public/</t>
+  </si>
+  <si>
+    <t>The savannas comprise almost half of Africa, beginning south of the Sahel and ending just north of the continent's southern tip. The most popular savanna region is the Serengeti Plains. Afirca's highest concentrations of large mammal species reside there. However, the savanna lands are decreasing due to a desire for more agriculture. (picture)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mediterranean or dry summer subtropical region covers the northern and southern extremes of Africa. Rain falls during the winter. Monthly temperatures are lower than tropical climates on average dropping to roughly 50 degrees Fahrenheit in the winter. Summer temperatures, however, may exceed that of tropical climates. Clear blue skies are also another characteristic of this climatic region. </t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/results/2024/01/18/digital-transformation-drives-development-in-afe-afw-africa</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/5658/21113022669_95ae9e9e44_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/4148/5142405785_e33ebfa73f_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Swahili Coast stretches along the coast of Kenya, Mozambique, and Tanzania. Areas of the Coast are centers for trade and water travel. Major international include Dar es Salaam and Mombasa. (picture of international port) </t>
+  </si>
+  <si>
+    <t>The humid subtropical marine climate is restricted to the southeast coast of Africa. Rain falls throughout the year, reaching its heaviest amounts during the summer.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/677/20759179108_d7266c5ea1_b.jpg</t>
+  </si>
+  <si>
+    <t>The warm temperate upland climatic region is found on the Highveld of Southern Africa. The rainfall is similar to the tropical wet-and-dry climate but temperatures are dependent on altitude.</t>
+  </si>
+  <si>
+    <t>Mangrove forests are the most common form of vegetation in the Swahili Coast. (picture)</t>
+  </si>
+  <si>
+    <t>The mountain climatic region covers the high mountains of Ethiopia and the lakes of East Africa. This climate is similar to the warm temperate upland climate minus the fact that temperatures can be lower because of mountains like Mt. Kilimanjaro. Rainfall is similar to that of the adjacent lowland areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://live.staticflickr.com/2919/34157493675_5d1813a1bd_b.jpg </t>
+  </si>
+  <si>
+    <t>https://www.aquilasafari.com/wp-content/uploads/2024/07/Lion-at-Aquila-Private-Game-Reserve-in-the-Snow.jpg</t>
+  </si>
+  <si>
+    <t>The rainforests of Africa are known for their rich biodiversity. Some indigenous rainforest groups live off the forest's provisions but have little content with the urban populations.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/3555/3518494043_871df54379_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria.  Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments are looking to harness the power of river and lakes to create hydroelectric power. </t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f6/Lake_Victoria_view.png</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/7444/16361601539_50c72bc718_b.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/47/Katse_Dam.jpg</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/63adbd0046fb7c3c750a3211/ab1be593-2bab-4eb3-8d51-7e9c45412916/Cataratas_Victoria%2C_Zambia-Zimbabue%2C_2018-07-27%2C_DD_07.jpg</t>
+  </si>
+  <si>
+    <t>Southern Africa, not to be mistaken with the country of South Africa is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's reserves, providing jobs and revenue. The Cape Floral Region is home to nearly 20% of Africa's flora. The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://live.staticflickr.com/4719/39727487654_7f764ca01d_b.jpg </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,16 +266,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +302,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -173,19 +320,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -193,7 +345,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,10 +355,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -244,20 +392,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -287,12 +435,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -331,319 +479,648 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.imf.org/external/datamapper/NGDP_RPCH@WEO/AFQ/ADVEC?year=2024" xr:uid="{BF7FABAB-7BBE-4BEA-9C46-5DBD26C8DE99}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5B9A1639-C103-4132-9D6F-55AA0B0AFDAE}"/>
-    <hyperlink ref="C3" r:id="rId3" location="ref37158" display="https://www.britannica.com/place/Africa/Climate - ref37158" xr:uid="{131EE20D-6775-4278-A4CA-7BDA4E4794C0}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{6D2CCDC3-96A8-48BE-AAE0-9155973E2362}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{EB975491-94D3-467D-9BAD-5F358C759F3B}"/>
-    <hyperlink ref="F3" r:id="rId6" location=":~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula" display="https://www.bu.edu/africa/outreach/teachingresources/literature-language-arts/language/ - :~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula" xr:uid="{A3C7EEA5-AC05-4777-B222-2CACC6AF6708}"/>
-    <hyperlink ref="G3" r:id="rId7" xr:uid="{A2972547-F6E7-4710-81F1-05227EB2926A}"/>
-    <hyperlink ref="A4" r:id="rId8" xr:uid="{F42D49C9-34CA-4DAD-834C-C8971184C4C2}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{4C3A4AEE-D0D7-4444-A252-86942F215B6D}"/>
-    <hyperlink ref="E4" r:id="rId10" xr:uid="{DC6AD256-7AAF-4150-A892-374CE210C059}"/>
-    <hyperlink ref="F4" r:id="rId11" location=":~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier" display="https://finance.yahoo.com/news/15-african-countries-english-official-101756305.html - :~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier" xr:uid="{7D4A6B5D-D3F7-4C8A-B39F-CE606B18A9F4}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{CF9A041A-69AD-4972-95EB-CCC9A483E376}"/>
-    <hyperlink ref="A5" r:id="rId13" display="https://www.forbes.com/lists/africa-billionaires/" xr:uid="{27815E73-83CC-479E-A0BB-AA9379775132}"/>
-    <hyperlink ref="D5" r:id="rId14" xr:uid="{916FA0A5-2625-4E48-A364-6F4817CAF459}"/>
-    <hyperlink ref="E5" r:id="rId15" xr:uid="{9A481D65-1870-496F-9B53-09EF455734D3}"/>
-    <hyperlink ref="F5" r:id="rId16" xr:uid="{573C27AC-313F-4379-9140-C8E87BE10291}"/>
-    <hyperlink ref="G5" r:id="rId17" xr:uid="{8562A345-BDFB-40E7-8CA1-AA7019EBEA01}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{1C645334-F3A1-41E7-A117-88135469974E}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{AD786CED-661E-44EC-A868-6D426136E720}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5e2521e471d018/Documents/GitHub/all-about-africa/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_61D01FC509757F6C48BE0E48EBE04F4AB30E4D20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F40EAC1-D380-4AA0-A023-8E43336CAFDF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -85,19 +79,25 @@
     <t>Africa notoriously has numerous health crises compared to other continents. Some of the world's highest rates of maternal mortality, malnutrition, and infectious disease deaths all reside in Africa. However, Africa's health is improving and has a positive outlook for the future. In 2019, the life expectancy increased by 10 years for both men and women from 2000. Universal health coverage is on a rise with 6 countries in Africa now having a UHC service coverage index in the "green" compared to 1 in 2000. However, out-of-pocket expenditure for most African countries has increased. 56.3% of women in a relationship or are married used modern family planning methods (i.e. contraceptives). 43.7% of women still don't have access to modern contraceptive methods. (insert contraceptive chart) 11 countries in Africa have not reached 50% coverage in antenatal care. There is 87% coverage of mother-to-child transmission of HIV which is amongst the highest in the world. According to the WHO, Africa has made "tremendous gains" in increasing access to immunization and reducing child mortality rates. Many diseases such as polio, maternal tetanus, and neonatal tetanus are about to be extinct. Unfortunately, immunization coverage rates have reached a stalemate.  (immunization coverage chart)</t>
   </si>
   <si>
+    <t>static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+  </si>
+  <si>
     <t>The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live.</t>
   </si>
   <si>
     <t>https://cdn.britannica.com/51/196351-050-31AB5275/climate-Africa-desert-conditions-fringes-stretches-portion.jpg</t>
   </si>
   <si>
+    <t>Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010. Many Africans are making a substantial living in major urban cities which can be explored in our infrastructure section. The poverty rate is declining as many countries' economies continue to develop and grow. There is a vast array of white collar jobs that contribute to the running of the economy.</t>
+  </si>
+  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/8/86/Desert_Sahara_sand.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">The hot desert region can be characterized by aridity and high average monthly temperatures. The Sahara, Kalahari, and Somali deserts make up this region. However with climate change causing unusual changes in weather patterns, leading to things like the hot desert region flooding, we could soon be changing our views on the characteristics of these climatic regions. </t>
   </si>
   <si>
-    <t>static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+    <t>https://carnegie-production-assets.s3.amazonaws.com/static/media/images/Africa_Chart_May.png</t>
   </si>
   <si>
     <t>The Sahel is a narrow band that is the barrier between the Sahara and the savannas. It ranges from Senegal to Sudan. It contains the Niger River delta. Through drought, deforestation, and intensive agriculture, the Sahel is being desertified. (picture)</t>
@@ -118,7 +118,7 @@
     <t>https://africacenter.org/spotlight/african-conflicts-displace-over-40-million-people/</t>
   </si>
   <si>
-    <t>Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010. Many Africans are making a substantial living in major urban cities which can be explored in our infrastructure section. The poverty rate is declining as many countries' economies continue to develop and grow. There is a vast array of white collar jobs that contribute to the running of the economy.</t>
+    <t xml:space="preserve">https://www.forbes.com/lists/africa-billionaires/ </t>
   </si>
   <si>
     <t>https://live.staticflickr.com/5596/14980244297_0f27d9e15e_b.jpg</t>
@@ -139,9 +139,6 @@
     <t>https://www.unrefugees.org/news/sudan-crisis-explained/</t>
   </si>
   <si>
-    <t>https://carnegie-production-assets.s3.amazonaws.com/static/media/images/Africa_Chart_May.png</t>
-  </si>
-  <si>
     <t>The Ethiopian Highlands rose 75 million years ago as magma. The Great Rift Valley System was formed after Africa's continental crust pulled apart. 80 percent of Africa's tallest mountains reside in the Highlands. One unique animal that some may not think resides in Africa is the Ethiopian wolf. (ethiopian wolf picture)</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>https://www.chathamhouse.org/2021/09/terrorism-africa#:~:text=Islamic%20terrorism%20in%20Africa&amp;text=Insurgent%20groups%20are%20often%20riven,by%20any%20international%20jihadist%20mission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.forbes.com/lists/africa-billionaires/ </t>
   </si>
   <si>
     <t>https://s3.animalia.bio/animals/photos/full/original/1620px-ethiopian-wolf-canis-simensis-citernii-2jpg.webp</t>
@@ -256,8 +250,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,24 +269,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0563c1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,40 +305,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -362,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -403,71 +388,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,7 +480,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -518,11 +503,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -531,13 +516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -547,7 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -556,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -565,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -573,10 +558,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -641,31 +626,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -715,7 +698,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -743,15 +726,15 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -761,15 +744,15 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -779,121 +762,123 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -901,7 +886,7 @@
       <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="2"/>
@@ -911,12 +896,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="2"/>
@@ -927,7 +912,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
@@ -943,9 +928,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -959,7 +944,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>64</v>
@@ -975,12 +960,12 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2"/>
@@ -991,7 +976,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>68</v>
@@ -1005,9 +990,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="2"/>
@@ -1019,7 +1004,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>70</v>
@@ -1033,9 +1018,9 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="2"/>
@@ -1047,9 +1032,9 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="2"/>
@@ -1061,9 +1046,9 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="2"/>
@@ -1075,9 +1060,9 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="2"/>
@@ -1089,7 +1074,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>75</v>
@@ -1103,9 +1088,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="2"/>
@@ -1118,10 +1103,6 @@
       <c r="J25" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{1C645334-F3A1-41E7-A117-88135469974E}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{AD786CED-661E-44EC-A868-6D426136E720}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -79,7 +79,7 @@
     <t>Africa notoriously has numerous health crises compared to other continents. Some of the world's highest rates of maternal mortality, malnutrition, and infectious disease deaths all reside in Africa. However, Africa's health is improving and has a positive outlook for the future. In 2019, the life expectancy increased by 10 years for both men and women from 2000. Universal health coverage is on a rise with 6 countries in Africa now having a UHC service coverage index in the "green" compared to 1 in 2000. However, out-of-pocket expenditure for most African countries has increased. 56.3% of women in a relationship or are married used modern family planning methods (i.e. contraceptives). 43.7% of women still don't have access to modern contraceptive methods. (insert contraceptive chart) 11 countries in Africa have not reached 50% coverage in antenatal care. There is 87% coverage of mother-to-child transmission of HIV which is amongst the highest in the world. According to the WHO, Africa has made "tremendous gains" in increasing access to immunization and reducing child mortality rates. Many diseases such as polio, maternal tetanus, and neonatal tetanus are about to be extinct. Unfortunately, immunization coverage rates have reached a stalemate.  (immunization coverage chart)</t>
   </si>
   <si>
-    <t>static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+    <t>static/img/econ/exp-2024-10-19_04_16_26.png</t>
   </si>
   <si>
     <t>The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live.</t>
@@ -252,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -322,7 +328,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -648,7 +654,7 @@
     <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -698,7 +704,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="3151.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -726,7 +732,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="154.5" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -744,7 +750,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="465" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -762,7 +768,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="235.5" customFormat="1" s="1">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -788,7 +794,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -814,7 +820,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="708" customFormat="1" s="1">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -838,7 +844,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="222" customFormat="1" s="1">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>47</v>
@@ -858,7 +864,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="343.5" customFormat="1" s="1">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -878,7 +884,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="492" customFormat="1" s="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -896,7 +902,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>58</v>
@@ -912,7 +918,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="235.5" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
@@ -928,7 +934,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>62</v>
@@ -944,7 +950,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="370.5" customFormat="1" s="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>64</v>
@@ -960,7 +966,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="154.5" customFormat="1" s="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>66</v>
@@ -976,7 +982,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="168" customFormat="1" s="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>68</v>
@@ -990,7 +996,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>69</v>
@@ -1004,7 +1010,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="559.5" customFormat="1" s="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>70</v>
@@ -1018,7 +1024,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>71</v>
@@ -1032,7 +1038,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>72</v>
@@ -1046,7 +1052,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>73</v>
@@ -1060,7 +1066,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="195" customFormat="1" s="1">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>74</v>
@@ -1074,7 +1080,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="316.5" customFormat="1" s="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>75</v>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -79,7 +79,7 @@
     <t>Africa notoriously has numerous health crises compared to other continents. Some of the world's highest rates of maternal mortality, malnutrition, and infectious disease deaths all reside in Africa. However, Africa's health is improving and has a positive outlook for the future. In 2019, the life expectancy increased by 10 years for both men and women from 2000. Universal health coverage is on a rise with 6 countries in Africa now having a UHC service coverage index in the "green" compared to 1 in 2000. However, out-of-pocket expenditure for most African countries has increased. 56.3% of women in a relationship or are married used modern family planning methods (i.e. contraceptives). 43.7% of women still don't have access to modern contraceptive methods. (insert contraceptive chart) 11 countries in Africa have not reached 50% coverage in antenatal care. There is 87% coverage of mother-to-child transmission of HIV which is amongst the highest in the world. According to the WHO, Africa has made "tremendous gains" in increasing access to immunization and reducing child mortality rates. Many diseases such as polio, maternal tetanus, and neonatal tetanus are about to be extinct. Unfortunately, immunization coverage rates have reached a stalemate.  (immunization coverage chart)</t>
   </si>
   <si>
-    <t>static/img/econ/exp-2024-10-19_04_16_26.png</t>
+    <t>/static/img/econ/exp-2024-10-19_04_16_26.png</t>
   </si>
   <si>
     <t>The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live.</t>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">According to the International Monetary Fund, the economies of African countries overall are growing their real GDP at a faster rate than countries that are considered to have advanced economies. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. </t>
   </si>
   <si>
-    <t>Africa is neither a continent covered solely by desert or savannah. There are 8 different physical regions in Africa which can be explored here: the Sahara, the Sahel, the Ethiopian Highlands, savannas, the Swahili Coast, rainforests, the African Great Lakes, and Southern Africa.  Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria. (picture of Lake Victoria) Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments are looking to harness the power of river and lakes to create hydroelectric power. Southern Africa, not to be mistaken with the country of South Africa is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's reserves, providing jobs and revenue. The Cape Floral Region is home to nearly 20% of Africa's flora. (list of animals in each region) The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters)</t>
+    <t xml:space="preserve">Africa is neither a continent covered solely by desert or savannah. There are 8 different physical regions in Africa which can be explored here: the Sahara, the Sahel, the Ethiopian Highlands, savannas, the Swahili Coast, rainforests, the African Great Lakes, and Southern Africa.  </t>
   </si>
   <si>
     <t xml:space="preserve">Africa is not wholly a hot and arid continent. Considering all factors Africa has 8 different climatic regions:  the hot desert, semiarid, tropical wet-and-dry, equatorial, Mediterranean, humid subtropical marine, warm temperate upland, and mountain regions. </t>
@@ -100,7 +100,7 @@
     <t>https://carnegie-production-assets.s3.amazonaws.com/static/media/images/Africa_Chart_May.png</t>
   </si>
   <si>
-    <t>The Sahel is a narrow band that is the barrier between the Sahara and the savannas. It ranges from Senegal to Sudan. It contains the Niger River delta. Through drought, deforestation, and intensive agriculture, the Sahel is being desertified. (picture)</t>
+    <t xml:space="preserve">The Sahel is a narrow band that is the barrier between the Sahara and the savannas. It ranges from Senegal to Sudan. It contains the Niger River delta. Through drought, deforestation, and intensive agriculture, the Sahel is being desertified. </t>
   </si>
   <si>
     <t>https://live.staticflickr.com/4710/28041822759_393487798b_b.jpg</t>
@@ -252,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,12 +277,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -314,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,9 +320,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -642,16 +633,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="43.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="58.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="45.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="52.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="57.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="62.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -686,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -704,7 +695,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="3151.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="1086" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -732,7 +723,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="154.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -750,7 +741,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="465" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -820,8 +811,8 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="708" customFormat="1" s="1">
-      <c r="A8" s="5"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -865,7 +856,7 @@
       <c r="J9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="343.5" customFormat="1" s="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
@@ -884,7 +875,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="492" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -1010,7 +1001,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="559.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>70</v>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Economy</t>
   </si>
@@ -49,46 +49,94 @@
     <t xml:space="preserve">Stereotype:  Africans are a poor people. </t>
   </si>
   <si>
-    <t>Stereotype: Africa is covered by desert and savannah.</t>
-  </si>
-  <si>
-    <t>Stereotype: Africa is only hot like the desert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the International Monetary Fund, the economies of African countries overall are growing their real GDP at a faster rate than countries that are considered to have advanced economies. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa is neither a continent covered solely by desert or savannah. There are 8 different physical regions in Africa which can be explored here: the Sahara, the Sahel, the Ethiopian Highlands, savannas, the Swahili Coast, rainforests, the African Great Lakes, and Southern Africa.  </t>
+    <t>Stereotype: Africa is solely covered by desert and savannah.</t>
+  </si>
+  <si>
+    <t>Stereotype: Africa's climate is like the desert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stereotype: Africa does not have technology and internet access. </t>
+  </si>
+  <si>
+    <t>Stereotype: African governments are corrupt</t>
+  </si>
+  <si>
+    <t>Stereotype: All African people speak African</t>
+  </si>
+  <si>
+    <t>Stereotype: Africa is constantly plagued by conflict.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stereotype: Africa's peoples are always sick and unhealthy. </t>
+  </si>
+  <si>
+    <t>Stereotype: People in Africa live in huts and villages</t>
+  </si>
+  <si>
+    <t>Stereotype: Africans are uneducated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the International Monetary Fund, the real GDP of African countries are growing at a faster rate than countries that are considered to have more advanced economies leading to some of the fastest growing economies of the world being in Africa. Nine African countries out of 20 worldwide are projected to have the fastest growth rates in 2024. Niger especially will be become the fastest-growing in Africa despite present political turmoil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa is neither a continent covered solely by desert or savannah. There are in fact 8 different physical regions in Africa which can be explored in this section: the Sahara, the Sahel, the Ethiopian Highlands, the savannas, the Swahili Coast, the rainforests, the African Great Lakes, and Southern Africa.  </t>
   </si>
   <si>
     <t xml:space="preserve">Africa is not wholly a hot and arid continent. Considering all factors Africa has 8 different climatic regions:  the hot desert, semiarid, tropical wet-and-dry, equatorial, Mediterranean, humid subtropical marine, warm temperate upland, and mountain regions. </t>
   </si>
   <si>
-    <t xml:space="preserve">One common stereotype about Africa is that Africans do not have internet access. However this general statement does not highlight the true realities of internet access. 64% of urban people in Africa use internet. However this varies between countries. Morocco's share of internet users is 90.7% while the Central African Republic's is 10.6%. By 2029 Internet is expected to reach over 1.1 billion people in Africa. The growth of internet access hasn't slowed down over the past couple of years. (diplo chart about internet penetration). Some African countries even have 5G access. (diplo chart about 5g) African governments have been improving internet access by adding satellites, mobile networks, and cables to give as much access as possible. Fibre optics has tripled between 2010 and 2020. Nigeria has the 6th highest number of mobile cellular telephone subscribers at 222,225,000 subscribers. In 2013 the World Bank and African Development Bank reported that there were 650 million mobile users in Africa, surpassing the U.S. and Europe.  While having the highest internet prices in the world, prices are going down but speed is increasing due to increased development of digital infrastructure. 38 million people used Facebook in 2011. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">African governments are not filled with corruption and are ineffective as with common Western belief. In Transparency.org's 2023 Corruption Perceptions Index (CPI) Report, countries as such Seychelles, Cape Verde, and Botswana had better CPI scores than the United States, Israel, and Italy respectively. While there are several African countries with low CPI scores, pushes for new leadership by citizens has helped bring in a new wave of less biased officals. Since the 1990s, Ghana adopted a new democratic constitution, emphasizing checks and balnces. Compared to some Western countries that have never elected a female head of state, 22 heads of state in Africa have been female. Currently, there are 5 heads of state: Tanzania's Samia Suluhu Sahan, Ethiopia's Sahle-Work Zewde (prior to October 2024), Namibia's  Saara Kuugongelwa, and Uganda's Robinah Nabbanja. (pictures of government throughout) Eswatini and Lesotho are unique in that their heads of state are monarchs.  Eswatini has the last absolute monarchy of Africa. Ghanian Kofi Annan was the 7th secretary-general of the United Nations, earning a Nobel Peace Prize with the international organization. Admittedly, in the midst of Africa's democratic progress coups in Niger and Gabon overshadow such things. The Scramble of Africa in the 19th century directly contributed to increased political violence and tensions due to ethnic partitioning and bad foundations for governments. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One unfortunate stereotype that may come up often about Africa is that Africans speak "African". On the contrary,  Africa is home to over 2,000 languages making up approximately 1/3 of the world's languages. Only Asia is believed to have slightly more. Nigeria alone has 520+ recognized languages. At least 75 languages in Africa have more than 1 million speakers. Each of these languages come from unique and various influences over centuries. Swahili was influenced by the Bantu and Arabic languages. Some countries have primary languages derived from their colonizer like Djibouti where one of the official languages is French. In Nigeria students are often taught English very similar to British English due to British colonization decades ago. Visit our general information map on the home page to see what the main languages and ethnic groups of each country are. This includes the official and unofficial languages spoken by a significant portion of the population. Over 24 countries in Africa have English as an official language. Children often learn English and the language belonging to their ethnic group.  Visit the education section to learn more about children's education. There is not a confirmed number of ethnic groups in Africa as they are divided by European-designed boundaries, have offshoots, have been muted, and cover multiple countries and regions. In Northern Africa, people speak mostly speak languages belonging to the Afro-Asiatic language family. The Berbers and Arabs are some of the notable groups of this region. The Arab people migrated to North Africa from Arabia centuries ago, leading to a unique Arabian culture in the North African region that is different from those in the Middle East. The dominant religion is Islam. Here another stereotype should be noted. Some people may not be aware of the different races within Africa that are not just "black". People from North Africa may not look "black" but are still 100% African. (picture of North Africans) West Africa has a startling diversity of ethnic groups within the region. Some parts of the region may consist of the largely populated Hausa and Fulani to smaller hard to contact ethnic groups. These groups may also come from formerly powerful kingdoms such as the Yoruba. The majority of people in this region believe in Islam or Christianity. Due to colonization efforts of previous centuries, folk religion became a muted minority in all of Africa. The majority of Africans follow Christianity, deriving from colonization efforts or Islam deriving from immigration centuries prior when Arabs traveled to Africa for pilgrimage, trade, and other things. The famous Mali king Mansa Musa did a pilgrimage to Mecca, showing off his large sums of gold with the region. In Central Africa, the official languages are mostly Portuguese, French, and Spanish. In here and Southern Africa, the Khoisan-speaking peoples who are known for their clicking sounds formerly populated this region. Looking at Eastern Africa, one may be shocked to see one unique influence present in the region. In Seychelles, the ethnic groups are influenced by India and Chinese influences. Eastern African had lots of trade during the (something century) due to their prime location. The Somali language in Somalia  was partly influenced by Arabic and Italian. You can see Indian influences and similarities with President Prithvirajsing Roopun of Mauritius's name. In Southern Africa click-consonant languages like Xhosa and Zulu are some of the most widely spoken. Afrikaans, which is spoken in the country of South Africa is a language that can be traced to Dutch. South African is dominated by Christianity. Madagascar is unique from the regions of mainland Africa in that its Malagasy ethnic gropus mostly originate from Indonesia. The Malagasy language itself is considered Austronesian. Going back to folk religion,  it is often believed that Africans practice traditional religions. This not necessarily true. Africans typically practice Islam or Christianity but mayadapt these religions to certain cultural and spritual aspects of the folk religion their ancestors used to have. Some people may use withcraft and myths to explain unnatural events but typically do not override their primary religion. Priests, clan elders, prophets, rainmakers, and other like-minded individuals mostly reside in rural regions not urban or surburban communities. While in the past, some societies were matrilineal, having iconic female leaders long before kingdoms of other countries, a patriarchal system consisting of violence and polygamy is quite prominent in the modern era. (statistics of domestic violence in Africa and such). However, this should not be considered as a catch-all. Families all over the continent and the world have different values, beliefs, and interactions with each other. Explore some of the traditions of some of the most popular ethnic groups of Africa here. </t>
-  </si>
-  <si>
-    <t>3.2 million Africans were displaced in 2023 due to several conflicts between state governments and militant groups, mostly Islamic ones. This is a blanket statement and doesn't recognize some important things to consider. These conflicts developed from complicated and complex situations. More often than not, they also developed and were brewing long before they appeared on national television. One cannot discuss conflicts in Africa without recognizing the intracacies of the various situations. The causes of these conflicts vary differently from one another. In West African countries such as Mali and Nigeria, recent corrupt governments have allowed Islamic militants to fill up the vacuum left by the government. In Sudan, the current conflict between the Rapid Support Forces and the Sudanese government is the latest branch stemming from the remnants of the Darfur Crisis and a coup a few years ago. With misinformation and a lack of awareness, one may be inclined to believe certain negative stereotypes. For starters, the common and inappropriate stereotype that all Muslims are extremists and terrorists is very incorrect. While Islamic militant groups may be part of several conflicts on the continent, they do not represent the Muslim population in Africa. Separating the two groups while understanding their similarities is something important to recognize. One analogy to think of is that while the Ku Klux Klan consists of Christian members, they do not represent the beliefs or values of all Christians. Another stereotype to consider is that Africa is an unsafe continent. As previously stated, Africa is a complex continent and while people from some countries or specific regions may be dealing with certain dangerous and harmful conflicts, many more Africans  elsewhere are living ordinary lives much like those in Western nations. One analogy to consider is how in Europe, there are several conflicts in the Eastern European region that have occurred within the past decade but that does not take away from the fact that many Europeans live regular lives and are wholly unaffected or are not as affected by the infamous conflict(s) as perceived on television. Studying resources from human rights organizations, news organizations in the involved countries, Africa-based &amp; centered organizations and non-biased organizations will help one gain a better and more holistic understanding of the situation at hand. Another important resource, one likely more important than those previously mentioned, is the accounts of the people who are living and have lived through the situation you are hearing about.</t>
-  </si>
-  <si>
-    <t>Africa notoriously has numerous health crises compared to other continents. Some of the world's highest rates of maternal mortality, malnutrition, and infectious disease deaths all reside in Africa. However, Africa's health is improving and has a positive outlook for the future. In 2019, the life expectancy increased by 10 years for both men and women from 2000. Universal health coverage is on a rise with 6 countries in Africa now having a UHC service coverage index in the "green" compared to 1 in 2000. However, out-of-pocket expenditure for most African countries has increased. 56.3% of women in a relationship or are married used modern family planning methods (i.e. contraceptives). 43.7% of women still don't have access to modern contraceptive methods. (insert contraceptive chart) 11 countries in Africa have not reached 50% coverage in antenatal care. There is 87% coverage of mother-to-child transmission of HIV which is amongst the highest in the world. According to the WHO, Africa has made "tremendous gains" in increasing access to immunization and reducing child mortality rates. Many diseases such as polio, maternal tetanus, and neonatal tetanus are about to be extinct. Unfortunately, immunization coverage rates have reached a stalemate.  (immunization coverage chart)</t>
-  </si>
-  <si>
-    <t>/static/img/econ/exp-2024-10-19_04_16_26.png</t>
-  </si>
-  <si>
-    <t>The Sahara covers the northern part of Africa. Oases give people in the region the water they need to live.</t>
+    <t xml:space="preserve">This general statement does not highlight the true realities of internet access in Africa. 64% of urban people in Africa use internet. However this varies between countries. Morocco's share of internet users is 90.7% while the Central African Republic's is 10.6%. By 2029, the Internet is expected to reach over 1.1 billion people in Africa. The growth of internet access hasn't slowed down over the past couple of years either. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not all African governments are filled with corruption and are completely ineffective as with commonly believed. In Transparency.org's 2023 Corruption Perceptions Index (CPI) Report, countries as such Seychelles, Cape Verde, and Botswana had better CPI scores than the United States, Israel, and Italy respectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One unfortunate stereotype that may come up often about Africa is that Africans speak "African". On the contrary, Africa is home to over 2,000 languages making up approximately 1/3 of the world's languages. Only Asia is believed to have slightly more. Nigeria alone has 520+ recognized languages. At least 75 languages in Africa have more than 1 million speakers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 million Africans were displaced in 2023 due to several conflicts between state governments and militant groups, mostly Islamic ones. This is a blanket statement and doesn't recognize some important things to consider. These conflicts developed from complicated and complex situations. More often than not, they also developed and were brewing long before they appeared on national television. One cannot discuss conflicts in Africa without recognizing the intracacies of the various situations. The causes of these conflicts vary differently from one another. In West African countries such as Mali and Nigeria, recent corrupt governments have allowed Islamic militants to fill up the vacuum left by the government. In Sudan, the current conflict between the Rapid Support Forces and the Sudanese government is the latest branch stemming from the remnants of the Darfur Crisis and a coup a few years ago. With misinformation and a lack of awareness, one may be inclined to believe certain negative stereotypes. For starters, the common and inappropriate stereotype that all Muslims are extremists and terrorists is very incorrect. While Islamic militant groups may be part of several conflicts on the continent, they do not represent the Muslim population in Africa. Separating the two groups while understanding their similarities is something important to recognize. One analogy to think of is that while the Ku Klux Klan consists of Christian members, they do not represent the beliefs or values of all Christians. Another stereotype to consider is that Africa is an unsafe continent. As previously stated, Africa is a complex continent and while people from some countries or specific regions may be dealing with certain dangerous and harmful conflicts, many more Africans elsewhere are living ordinary lives much like those in Western nations. One analogy to consider is how in Europe, there are several conflicts in the Eastern European region that have occurred within the past decade but that does not take away from the fact that many Europeans live regular lives and are wholly unaffected or are not as affected by the infamous conflict(s) as perceived on television. Studying resources from human rights organizations, news organizations in the involved countries, Africa-based &amp; centered organizations and non-biased organizations will help one gain a better and more holistic understanding of the situation at hand. Another important resource, one likely more important than those previously mentioned, is the accounts of the people who are living and have lived through the situation you are hearing about. 3.2 million Africans were displaced in 2023 due to several conflicts between African states. One source to look at is the Global Terrorism Index. </t>
+  </si>
+  <si>
+    <t>Africa notoriously has numerous health crises compared to other continents. Some of the world's highest rates of maternal mortality, malnutrition, and infectious disease deaths all reside in Africa. However, Africa's health is improving and has a positive outlook for the future. In 2019, the life expectancy increased by 10 years for both men and women from 2000. Universal health coverage is on a rise with 6 countries in Africa now having a UHC service coverage index in the "green" compared to 1 in 2000. However, out-of-pocket expenditure for most African countries has increased. 56.3% of women in a relationship or are married used modern family planning methods (i.e. contraceptives). 43.7% of women still don't have access to modern contraceptive methods.</t>
+  </si>
+  <si>
+    <t>This is one of the more prevalent stereotypes about Africa. Contrary to popular belief, Africa has several large and bustling urban cities on the scale of New York, Abu Dhabi, and Sydney of Western countries. Lagos, Nigeria . Urbanization reached near 44% in Africa overall 2021. Libya alone has more than 80% of the country urbanized. Urbanization has consistently risen since 2000. Kinshasa, Democratic Republic of the Congo and Lagos, Nigeria are the 14th and 15th largest cities in the world, respectively. Lagos alone has a population of more than 16.5 million people. This is more than Rio De Janeiro, Seoul, London, and Toronto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa has a unique situation with the quality of its education influenced by health crises, lingering effects of Western colonialism, armed conflicts, and gender disparities. On one hand, Africa has produced many great scholars from the great writer Chinua Achebe of Nigeria to Sameera Moussa, the first Egyptian nuclear physicist. Here at this </t>
+  </si>
+  <si>
+    <t>static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sahara covers the northern part of Africa. The climate of the region can be explored in the climate section. As commonly known, the Sahara is entirely desert can covers the majority of North Africa. Oases, rivers, and lakes provide water to the region's inhabitants. Vegetation is sparse and animals have adapted over time to this unique region. </t>
   </si>
   <si>
     <t>https://cdn.britannica.com/51/196351-050-31AB5275/climate-Africa-desert-conditions-fringes-stretches-portion.jpg</t>
   </si>
   <si>
-    <t>Oil, hydrocarbon, natural gas all have heavily contributed to the skyrocketing of these economies. Sub-saharan Africa is the second fastest growing region in the world. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 B. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010. Many Africans are making a substantial living in major urban cities which can be explored in our infrastructure section. The poverty rate is declining as many countries' economies continue to develop and grow. There is a vast array of white collar jobs that contribute to the running of the economy.</t>
+    <t>&lt;div class="infogram-embed" data-id="26e0721d-9758-4e9c-b959-e5aca7dfcfc7" data-type="interactive" data-title="8 African countries: Evolution of internet penetration rates"&gt;&lt;/div&gt;&lt;script&gt;!function(e,n,i,s){var d="InfogramEmbeds";var o=e.getElementsByTagName(n)[0];if(window[d]&amp;&amp;window[d].initialized)window[d].process&amp;&amp;window[d].process();else if(!e.getElementById(i)){var r=e.createElement(n);r.async=1,r.id=i,r.src=s,o.parentNode.insertBefore(r,o)}}(document,"script","infogram-async","https://e.infogram.com/js/dist/embed-loader-min.js");&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="transparencyEmbed" data-year="2023"&gt;&lt;/div&gt;&lt;script src="https://transparency.org/assets/dist/embed-generator.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.statista.com/statistics/1280625/number-of-living-languages-in-africa-by-country/" rel="nofollow"&gt;&lt;img src="https://www.statista.com/graphic/1/1280625/number-of-living-languages-in-africa-by-country.jpg" alt="Statistic: Number of living languages in Africa as of 2022, by country  | Statista" style="width: 100%; height: auto !important; max-width:1000px;-ms-interpolation-mode: bicubic;"/&gt;&lt;/a&gt;&lt;br /&gt;Find more statistics at  &lt;a href="https://www.statista.com" rel="nofollow"&gt;Statista&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>/static/assets/img/war/gpi_terror.png</t>
+  </si>
+  <si>
+    <t>/static/assets/img/health/contraceptives.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/63/2014_Victoria_Island_Lagos_Nigeria_15006436297.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theafricareport.com/in-depth/the-100-most-influential-africans/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil, hydrocarbons, and natural gas all have heavily contributed to the skyrocketing growth of these economies. Sub-Saharan Africa is the second fastest growing region in the world. In Southern and Central Africa, metals and minerals are the largest exports. Africa actually has a very huge share of the world's mineral resources, making the continent incredibly valuable. These kinds of resources are part of why imperialism took place there in past, actually contributing to some of the destablization present in some countries today. In Morocco, Tunisia, and Lesotho, textiles and clothing are the largest exports. Food and drink in general contribute a significant amount to the growth of the economy. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 billion. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010. Many Africans are making a substantial living, especially in major urban cities. The poverty rate is declining as many countries' economies continue to develop and grow. However 464 million people still live in poverty. Investing the population will help many of Africa's countries to overcome issues created by climate change, armed conflicts, and industrial issues. The working age population is expecte to increase by 750 million by 2050 although 3 million new formal wage jobs are created each year. </t>
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/8/86/Desert_Sahara_sand.jpg</t>
@@ -97,6 +145,27 @@
     <t xml:space="preserve">The hot desert region can be characterized by aridity and high average monthly temperatures. The Sahara, Kalahari, and Somali deserts make up this region. However with climate change causing unusual changes in weather patterns, leading to things like the hot desert region flooding, we could soon be changing our views on the characteristics of these climatic regions. </t>
   </si>
   <si>
+    <t xml:space="preserve">Senegal, Nigeria, Gabon, Egypt, Ethiopia, Kenya, Uganda, Zimbabwe, Botswana, Lesotho, Madagascar, Seychelles, and Mauritius all have 5G access. African governments have been improving internet access by adding satellites, mobile networks, and cables to improve access. In fact, 82% of the African population has access to 3G and 4G internet. Fibre optics has tripled between 2010 and 2020. Nigeria alone has the 6th highest number of mobile cellular telephone subscribers at 222,225,000 subscribers. In 2013 the World Bank and African Development Bank reported that there were 650 million mobile users in Africa, surpassing the U.S. and Europe. Africa is the fastest growing and second largest mobile phone market in the world. More than 8 in 10 Africans own a mobile phone. Mobile data usage in Africa accounts for 15% of the total traffic worldwide. While having the highest internet prices in the world, prices are going down but speed is increasing due to increased development of digital infrastructure. The use of social media in the region is rather prevalent as well with 38 million people using Facebook in 2011. </t>
+  </si>
+  <si>
+    <t>While there are many African countries with low CPI scores, pushes for new leadership by citizens have helped bring in a new wave of less biased officials. In the 1990s, Ghana adopted a new democratic constitution, emphasizing checks and balances. Compared to the 113 countries that have not yet elected a female head of state, 22 heads of state in Africa have been female. Currently, there are 5 heads of state in Africa: Tanzania's Samia Suluhu Sahan, Ethiopia's Sahle-Work Zewde (prior to October 2024), Namibia's Saara Kuugongelwa, and Uganda's Robinah Nabbanja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each of these languages come from unique and various influences over the past several centuries. For example, Swahili was influenced by the Bantu and Arabic languages. Some countries have primary languages derived from their colonizer like Djibouti where one of the official languages is French. In Nigeria students are often taught English very similar to British English due to British colonization. Visit our general information map on the home page to see what the main languages and ethnic groups of each country are. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking at the map, you'll see many African countries on the high and low end of the terrorism index, both being more peaceful and more violent than many Western countries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 countries in Africa have not reached 50% coverage in antenatal care. There is 87% coverage of mother-to-child transmission of HIV which is amongst the highest in the world. According to the WHO, Africa has made "tremendous gains" in increasing access to immunization and reducing child mortality rates. Maternal mortality rates have decreased by 38% since 2000, signaling positive movement. Many diseases such as polio, maternal tetanus, and neonatal tetanus are about to be extinct. Unfortunately, immunization coverage rates have reached a stalemate. However, malaria rates have decreased massively in the region however compared to previous years, a positive sign for the continent. So overall, disease elimination is on a rise in the continent. Statistics for HIV/AIDS and adolescent pregnancy are incredibly but have shown decreased in recent years. There is a 47% reduction in HIV incidents along with increased access to retrovirals. However, HIV transmission is still continue with an increase in the number of infected individuals with HIV in 2021. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are not just anomalies either. Cairo is the 6th most populous city in the world with a stagerring population of more than 22.6 million. Luanda, Angola has a population of 9.65 million. Dar Es Salaam, Tanzania has a population of 8.16 million. Cape Town, South Africa has a population of nearly 5 million. The majority of African cities have a rising population growth rate as well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">link, you'll see a list of many Africans in numerous fields that are famous and/or had a great impact on today's world. Not to mention that at least 15 of Africa's countries have an adult literacy rate of 80% or above. </t>
+  </si>
+  <si>
     <t>https://carnegie-production-assets.s3.amazonaws.com/static/media/images/Africa_Chart_May.png</t>
   </si>
   <si>
@@ -106,142 +175,313 @@
     <t>https://live.staticflickr.com/4710/28041822759_393487798b_b.jpg</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.statista.com/statistics/1124283/internet-penetration-in-africa-by-country/" rel="nofollow"&gt;&lt;img src="https://www.statista.com/graphic/1/1124283/internet-penetration-in-africa-by-country.jpg" alt="Statistic: Share of internet users in Africa as of January 2024, by country | Statista" style="width: 100%; height: auto !important; max-width:1000px;-ms-interpolation-mode: bicubic;"/&gt;&lt;/a&gt;&lt;br /&gt;Find more statistics at  &lt;a href="https://www.statista.com" rel="nofollow"&gt;Statista&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52753132410_425f99362c_b.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bu.edu/africa/files/2013/10/547px-African_language_families1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stereotype: Africa is unsafe to travel to and be in. </t>
+  </si>
+  <si>
+    <t>/static/assets/img/health/immunity_chart.png</t>
+  </si>
+  <si>
+    <t>According to the African Development Bank, African countries need to update their infrastructure to meet the demands of the growing population. This is leading to a rise in investment by Western countries such as China and the United States.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href="https://intelpoint.co/insights/adult-literacy-rates-of-african-countries/" title="Adult literacy rates of African countries"&gt;&lt;img src="https://intelpoint.co/wp-content/uploads/2024/01/Adult-literacy-rates-of-African-countries.webp" style="width: 80%; height: auto; max-width:960px;-ms-interpolation-mode: bicubic; margin: 0 auto; display: block;" alt="Chart: Adult literacy rates of African countries"/&gt;&lt;/a&gt;&lt;br&gt;&lt;span&gt;Find more insights at &lt;a href="https://intelpoint.co/insights?utm_source=Insight%20Embed&amp;utm_medium=HTML&amp;utm_campaign=Adult+literacy+rates+of+African+countries" target="_blank" style="color: #4f9acc; text-decoration: none;"&gt;Intelpoint&lt;/a&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://assets.weforum.org/editor/a4LcEFARWzwzzErO3f9QwuXQtoOxHGaJ1jz9HFo-LGY.png</t>
+  </si>
+  <si>
+    <t>https://cdn.britannica.com/33/146033-050-1F84E56E/Sahel-rain-season-Bamako-Mali-Kayes.jpg?w=300</t>
+  </si>
+  <si>
+    <t>The semiarid regions are similar to the desert regions in temperature but are not true desert due to receiving more rainfall. This region includes the greater part of the land south of the Zambezi River.</t>
+  </si>
+  <si>
     <t>https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/internet-access-connectivity-africa/</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a5/Sahlework_Zewde.jpg</t>
+  </si>
+  <si>
+    <t>This map includes the official languages and the unofficial languages spoken by a significant portion of the population. Over 24 countries in Africa have English as an official language. Children often learn English and the language belonging to their ethnic group. Visit the education section to learn more about children's education statistics. There is not a confirmed number of ethnic groups in Africa as they are divided by European-designed boundaries, have offshoots, have been muted, and cover multiple countries and regions. However, it is believed that the number is considerably large.</t>
+  </si>
+  <si>
+    <t>As previously stated, Africa is a complex continent and while people from some countries or specific regions may be dealing with certain dangerous and harmful conflicts, many more Africans elsewhere are living ordinary lives much like those in Western nations. One analogy to consider is how in Europe, there are several conflicts in the Eastern European region that have occurred within the past decade but that does not take away from the fact that many Europeans live regular lives and are wholly unaffected or are not as affected by the infamous conflict(s) as perceived on television. Studying resources from human rights organizations, news organizations in the involved countries, Africa-based &amp; centered organizations and non-biased organizations will help one gain a better and more holistic understanding of the situation at hand. Another important resource, one likely more important than those previously mentioned, is the accounts of the people who are living and have lived through the situation you are hearing about. Millions of people travel to Africa each year to experience the cultural heritage, food, landmarks, and wildlife of the numerous countries and regions of Africa. Morocco is the most visited country in Africa with 10.87 million visitors in 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38% of female murders are committed by an intimate partner. Women in the African region are more likely than men to contract HIV/AIDS, become depressed, and have alcohol use disorders. Not to mention that rising conflicts in some regions of Africa have led to an increase in sexual violence as a war tactic. While people in the region are opening up to talking about these health crises, mental health access has not improved compared to other health statistics in the continent. News coverage of diseases in the African region like Ebola do not reveal the whole story. Africa has dealt with several Ebola outbreaks in different countries throughout the past several decades, reaching back to 1976. While Ebola originated from contact with bushmeat animals like bats and such, it should be stated or implied that all Africans eat bushmeat. A small minority of the population eat bushmeat consistently due to what is available in their immediate environment. Urban and suburban regions go to the grocery store or food market to get their food as the majority of the Western population does as well. Ebola outbreaks can be likened to Covid-19 outbreaks, in that they occur in relatively small localized areas and not everyone will contract the disease. </t>
+  </si>
+  <si>
+    <t>In regards to transportation, public transport is offered in several forms. Railways, buses, and ferries are very common throughout the continent. Buses are cheaper than cars are a widely used mode of transportation in cities. Minibuses and taxes are the most common forms of transportation, being owned by private organizations or local governments. Some countries provide long-distance and international transportation with Kenya, Ghana, and Nigeria experimenting with high-speed train usage. The largest railway network is in South Africa. Owning a vehicle is considered a status symbol especially amongst those with middle incomes. Car ownership is increasing in Arican cities overall. Motorcycles are also a rather popular form of transport in Africa. The nimble vehicles can navigate heavy traffic better than other vehicles can.</t>
+  </si>
+  <si>
+    <t>On the other hand, 87% of children are learning poorly. 60% of children between 15 and 17 are not in school. Girls have a worse educational situation compared to boys. 9 million girls between 6 and 11 are expected to never go to school. These are unfortunate statistics to hear.</t>
+  </si>
+  <si>
+    <t>Despite these things, the economy of Africa, with the exclusion of North Africa and the country of South Africa, is mostly agricultural. Two-thirds of Africa's working population are employed by the agriculture industry even though roughly 6% of Africa's total landmass is arable. To monitor and help improve this massive industry, there are several research centers dedicated to researching how to update and manage cropping systems. The International Institute of Tropical Agriculture in Ibadan, Nigeria is one such center.</t>
+  </si>
+  <si>
+    <t>The Ethiopian Highlands rose 75 million years ago as magma. The Great Rift Valley System was formed after Africa's continental crust pulled apart. 80 percent of Africa's tallest mountains reside in the Highlands. One famous animal of the region is the Ehthiopian wolf.</t>
+  </si>
+  <si>
+    <t>The tropical wet-and-dry region, more popularly known as the savanna region, incorrectly suggest that everywhere with savanna vegetation has this climate. This region covers a little less than 50% of the continent's total surface area. 6 months of rainfall characterize this region. Some places may have little rainfall during the low sun period however. The mean monthly temperatures have little variation. In western Africa, the harmattan season directs the period of low sun. The harmattan is a warm, dry, easterly or northeasterly wind from the Sahara, bringing with it lots of sand and dust.</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/results/2023/06/27/from-connectivity-to-services-digital-transformation-in-africa</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/4164/33589720484_050ec164df_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Northern Africa, people speak mostly speak languages belonging to the Afro-Asiatic language family. The Berbers and Arabs are some of the notable groups of this region. The Arab people migrated to North Africa from Arabia centuries ago, leading to a unique Arabian culture in the North African region that has significant differences from those in the Middle East. The dominant religion is Islam. North Africa should not be confused with the Middle Eastern Region. The country of Egypt is the only African country part of the Middle East and North Africa. While both North Africa and the Middle East have large Arab and Muslim populations, they are not interchangeable with each other.  The Middle East is a unique geopolitical region separate from continental divisions. Here another stereotype should be noted. </t>
+  </si>
+  <si>
+    <t>/static/assets/img/war/gpi_peace.png</t>
+  </si>
+  <si>
+    <t>https://files.aho.afro.who.int/afahobckpcontainer/production/files/Health-for-all_Regional_Factsheet.pdf</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/50051865482_e36c6d3911_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But progress is happening. Since the 2000s African governments have worked towards bridging the education gap. 17% of children are not in school compared to 35% in 2000. The secondary school exclusion rates have also dropped. 17 million teachers will be needed to create universal primary and secondary education by 2030. About 80% of teachers at each schooling level are qualified to teach students. School completion rates have risen about 15% for all schooling levels. Tertiary education has risen from less than 800,000 to more than 17 million over 50 years. The rise of entrepreneurship in Africa has led to even more investment in local education and solving other problems in communities. Armed conflicts pose a threat to the success of progress. There are concerns about whether Africa will be able to overcome the inadequate supply of quality infrastructure and equipment in order to successfully leave a positive impact on the large and growing child population. It is the hope of many that keeping up with the present investment in African countries will help bring down the negative statistics of education in the continent and continue to turn things around. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/4032/4581058729_f6b3fe84ed_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/51707265922_9109204e07_b.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/64/Harmattan._Dust._Fishing_Pirougues._Senegal.jpg</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1124283/internet-penetration-in-africa-by-country/</t>
+  </si>
+  <si>
+    <t>https://www.watchdoguganda.com/wp-content/uploads/2021/06/nabbanja.jpg</t>
+  </si>
+  <si>
+    <t>Stereotype: All Africans are black.</t>
+  </si>
+  <si>
+    <t>https://africacenter.org/spotlight/african-conflicts-displace-over-40-million-people/</t>
+  </si>
+  <si>
+    <t>https://africacdc.org/news-item/mental-health-a-universal-human-right-for-africans/</t>
+  </si>
+  <si>
+    <t>https://www.economist.com/content-assets/images/20240817_MAP505.jpg</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org/media/106691/file</t>
+  </si>
+  <si>
+    <t>https://www.weforum.org/agenda/2016/05/which-are-africas-biggest-exports/#:~:text=In%20the%20south%20and%20central,Congo%20and%20platinum%20in%20Zimbabwe.</t>
+  </si>
+  <si>
+    <t>https://s3.animalia.bio/animals/photos/full/original/1620px-ethiopian-wolf-canis-simensis-citernii-2jpg.webp</t>
+  </si>
+  <si>
+    <t>Equatorial regions are the wettest in Africa. There are specifically two peak periods of rainfall. Variations in temperature are typically less pronounced than the tropical wet-and-dry regions but sometimes one rainy season may be monsoonal and the other near nonexistent.</t>
+  </si>
+  <si>
+    <t>https://www.cia.gov/the-world-factbook/field/telephones-mobile-cellular/country-comparison/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini and Lesotho are unique in that their heads of state are monarchs. Eswatini has the last absolute monarchy of Africa. Ghanian Kofi Annan was the 7th secretary-general of the United Nations, earning a Nobel Peace Prize with the international organization. Admittedly, in the midst of Africa's democratic progress coups in countries such as Niger and Gabon overshadow such progress. But it should be noted that no country is perfect and has a unique and complicated history. Some countries have dealing with issues since their inception while others have come across sudden and rapid influences. In consideration of the effect of history, Scramble of Africa in the 19th century partly contributed to increased political violence and tensions due to ethnic partitioning and bad foundations for governments. While unaware of some of the fractious relations between ethnic groups, European governments grouped some ethnic groups together without realizing the long term effects. </t>
+  </si>
+  <si>
+    <t>Some people may not be aware of the different races within Africa that are not just "black". People from North Africa may not look "black" but are still 100% African. One famous North African is the Liverpool football player, Mohammed Salah. In fact, he is one of the best football players in the world.</t>
+  </si>
+  <si>
+    <t>https://www.unrefugees.org/news/sudan-crisis-explained/</t>
+  </si>
+  <si>
+    <t>https://media.cnn.com/api/v1/images/stellar/prod/230202114640-roam-rapid-nairobi-kenya-2.jpg?c=original</t>
+  </si>
+  <si>
+    <t>https://www.globalpartnership.org/node/document/download?file=document/file/2024-02-educate-africans-21st-century-seizing-moment-rev2.pdf</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/place/Africa/Metallic-deposits</t>
+  </si>
+  <si>
+    <t>The savannas comprise almost half of Africa, beginning south of the Sahel and ending just north of the continent's southern tip. The most popular savanna region is the Serengeti Plains. Afirca's highest concentrations of large mammal species reside there. However, the savanna lands are decreasing due to a desire for more agriculture. Many people travel to the savanna to see famous African animals such as lions, zebras, and elephants on safaris.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mediterranean or dry summer subtropical region covers the northern and southern extremes of Africa. Rain falls during the winter. Monthly temperatures are lower than tropical climates on average dropping to roughly 50 degrees Fahrenheit in the winter. Summer temperatures, however, may exceed that of tropical climates. Clear blue skies are also another characteristic of this climatic region. </t>
+  </si>
+  <si>
+    <t>https://www.un.org/africarenewal/magazine/may-2013/africa%E2%80%99s-mobile-youth-drive-change#:~:text=Cell%20phones%20today%20are%20nearly,the%20United%20States%20or%20Europe.</t>
+  </si>
+  <si>
     <t>https://www.transparency.org/en/cpi/2023</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSG1StMDvTMk41LqJAqlZTi6pBKm_gTonMwuw&amp;s</t>
+  </si>
+  <si>
+    <t>https://hmh.org/library/research/genocide-in-darfur-guide/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typically the majority of Africans in rural areas will use walking as their main mode of transportation. </t>
+  </si>
+  <si>
+    <t>https://www.globalpartnership.org/blog/making-education-africa-fit-21st-century</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forbes.com/lists/africa-billionaires/ </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/5658/21113022669_95ae9e9e44_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/4148/5142405785_e33ebfa73f_b.jpg</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/results/2024/01/18/digital-transformation-drives-development-in-afe-afw-africa</t>
+  </si>
+  <si>
+    <t>https://www.brookings.edu/articles/good-and-inclusive-governance-is-imperative-for-africas-future/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Africa has a startling diversity of ethnic groups within the region. This region may consist ethnic groups such as the largely populated Hausa and Fulani all the way to smaller and hard to contact ethnic groups. These groups may also come from formerly powerful kingdoms such as the Yoruba. The majority of people in this region believe in Islam or Christianity. Due to colonization efforts of previous centuries, folk religion has become a muted minority in all of Africa. The majority of Africans follow Christianity, deriving from colonization efforts, or Islam deriving from immigration centuries prior when Arabs traveled to Africa for pilgrimage, trade, and other things. One famous historical figure, Mali's king Mansa Musa, did a Islamic pilgrimage to Mecca, showing off his large sums of gold and cementing his place as one of the richest if not the richest person in history. </t>
+  </si>
+  <si>
+    <t>https://www.chathamhouse.org/2021/09/terrorism-africa#:~:text=Islamic%20terrorism%20in%20Africa&amp;text=Insurgent%20groups%20are%20often%20riven,by%20any%20international%20jihadist%20mission.</t>
+  </si>
+  <si>
+    <t>https://www.afdb.org/en/topics-and-sectors/sectors/infrastructure</t>
+  </si>
+  <si>
+    <t>The Swahili Coast stretches along the coast of Kenya, Mozambique, and Tanzania. Areas of the Coast are centers for trade and water travel. Major international include Dar es Salaam and Mombasa. For centuries the Coast has been used to participate in the Indian Ocean Trade.</t>
+  </si>
+  <si>
+    <t>The humid subtropical marine climate is restricted to the southeast coast of Africa. Rain falls throughout the year, reaching its heaviest amounts during the summer.</t>
+  </si>
+  <si>
+    <t>https://cepr.org/voxeu/columns/contemporary-shadow-scramble-africa</t>
+  </si>
+  <si>
+    <t>In Central Africa, the official Western-based languages are mostly Portuguese, French, and/or Spanish. In here and Southern Africa, the Khoisan-speaking peoples who are known for their clicking sounds formerly populated this region in mass numbers. Christianity and its denominations are prominent in this region.</t>
+  </si>
+  <si>
+    <t>https://www.pewresearch.org/short-reads/2021/09/01/muslims-are-a-growing-presence-in-u-s-but-still-face-negative-views-from-the-public/</t>
+  </si>
+  <si>
+    <t>https://www.afdb.org/en/knowledge/publications/tracking-africa%E2%80%99s-progress-in-figures/infrastructure-development</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/677/20759179108_d7266c5ea1_b.jpg</t>
+  </si>
+  <si>
+    <t>The warm temperate upland climatic region is found on the Highveld of Southern Africa. The rainfall is similar to the tropical wet-and-dry climate but temperatures are dependent on altitude.</t>
+  </si>
+  <si>
+    <t>https://www.unwomen.org/en/news-stories/press-release/2024/06/in-the-biggest-electoral-year-in-history-113-countries-have-never-had-a-woman-head-of-state-new-un-women-data-shows</t>
+  </si>
+  <si>
+    <t>Looking at Eastern Africa, one may be shocked to see one unique influence present in the region. In Seychelles, the ethnic groups are influenced by Indian and Chinese influences. This is due to Eastern Africa having lots of trade all the way up to the 14th century due to their prime location. Even now, the region is crucial for helping to manage the Indian Ocean Trade. The diaspora created during those times are the foundation of the cultural identity of many East African countries. The Somali language in Somalia was partly influenced by Arabic and Italian. You can see other influences from countries such as India in places like Mauritius with their president, Prithvirajsing Roopun having an Indian-originating name. Christianity, Islam, and several religions originating from Asia such as Hindu and Sikh are represented in this region.</t>
+  </si>
+  <si>
+    <t>https://www.transportafrica.org/understanding-public-transportation-in-africa/#:~:text=FORMS%20OF%20PUBLIC%20TRANSPORT,and%20other%20modes%20of%20transportation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangrove forests are a rather unique form of vegetation present in Africa. Eaast African mangroves are found along the Swahili Coast. They are a very productive ecoregion, being the shelter of numerous crucial species to the region's ecosystem. The Nile crocodile, the hippopotamus, and the spot-necked otter all may reside in mangrove forests. Mangrove forests help protect the shoreline and coral reefs. There are some mangrove forests protected in national parks or conservation areas. Unfotunately many mangrove forests are facing deforestation because of the resources that they provide, making them incredibly endangered. The 3rd largest mangrove stands in the world are found in Nigeria's Niger Delta. Sadly, approximately 1.5 million tons of oil have been spilled there. A quarter of Nigeria's population rely on the Niger Delta. </t>
+  </si>
+  <si>
+    <t>The mountain climatic region covers the high mountains of Ethiopia and the lakes of East Africa. This climate is similar to the warm temperate upland climate minus the fact that temperatures can be lower because of mountains like Mt. Kilimanjaro. Rainfall is similar to that of the adjacent lowland areas.</t>
+  </si>
+  <si>
+    <t>In Southern Africa, click-consonant languages like Xhosa and Zulu are some of the most widely spoken. Afrikaans, which is spoken in the country of South Africa is a language that can be traced to Dutch. South Africa is dominated by Christianity. It should be noted that not all South Africans are "black" either. Due to Dutch colonization and influences there is a significant amount of the South African population that are caucasian appearing. One famous person you may be familiar with is the Academy and Golden Globe winning actress Charlize Theron. Another person present in recent pop culture is the Afrobeats star, Tyla.</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/1198287/africa-infrastructure-development-index-by-country/#:~:text=In%202022%2C%20Seychelles%20was%20the,infrastructure%20development%20across%20the%20continent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://live.staticflickr.com/2919/34157493675_5d1813a1bd_b.jpg </t>
+  </si>
+  <si>
+    <t>https://www.aquilasafari.com/wp-content/uploads/2024/07/Lion-at-Aquila-Private-Game-Reserve-in-the-Snow.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/4296/35404749163_bb2dbafbff_b.jpg</t>
+  </si>
+  <si>
+    <t>https://www.visionofhumanity.org/maps/global-terrorism-index/#/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rainforests of Africa are known for their rich biodiversity. Gorillas, flying squirrels, and crowned eagles all live in the rainforests. The Congo Basin in Central Africa is the 2nd largest rainforest in the world and is nicknamed the world's second lung. 100s of species reside in this rainforest including several critically endangered species. Almost 150 ethnic groups live in the Congo Basin, with the Ba'Aka people famously living a hunter-gatherer lifestyle. More than 75 million people use the Congo Basin for its resources. Human actions also impact rainforests like the Congo Basin too with increased demand for natural resources, illegal wildlife trading, and deforestation effecting the longevity of the forest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.britannica.com/place/Africa/Climate#ref37158</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5a/Tyla_for_Vogue_2024_01.jpg</t>
+  </si>
+  <si>
+    <t>https://www.visionofhumanity.org/maps/#/</t>
+  </si>
+  <si>
+    <t>https://files.worldwildlife.org/wwfcmsprod/images/Forest_Elephant_Threats/featured_story/96u1aup12a_Forest_elephant_7.30.2012_threats_HI_36715.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar is unique from the regions of mainland Africa in that its Malagasy ethnic gropus mostly originate from Indonesia. The Malagasy language itself is considered Austronesian. Going back to folk religion as briefly touched on before, it is often believed that Africans practice traditional religions. This is not necessarily true. Africans typically practice Islam or Christianity but may adapt these religions to certain cultural and spritual aspects of the folk religion their ancestors used to have. Some people may use withcraft and myths to explain unnatural events but typically do not override their primary religion. Priests, clan elders, prophets, rainmakers, and other folk religion leaders mostly reside in very rural regions, not urban or surburban communities. That is not to say that folk religion may not exist in a rural village. This simply depends on where you are. While in the past, some societies were matrilineal, notably having iconic female leaders long before kingdoms of other countries, a patriarchal system consisting of violence and polygamy is quite prominent in the modern era. However, this should not be considered as a catch-all. Families all over the African continent and the world have different values, beliefs, and interactions with each other. </t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/20-most-visited-countries-africa-004517530.html?guccounter=1&amp;guce_referrer=aHR0cHM6Ly93d3cuZ29vZ2xlLmNvbS8&amp;guce_referrer_sig=AQAAAG3kbkM6pfPifhm0O9-BT9D9KS-a7_dZ8fegO4koY1oVPXpQ0P81r8-ketA7AwCfnwwLSjdeCeXZ1zZtcb91X0POXVaj7bJi-WaD9C0AF5ud8srtmUomSGTXuKAh26fr6qqedzZHPiIGULRQEwQOzE3DHtuS2InfAxPVopLmYdPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria.  Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments often seek to harness the power of the river and lakes to create hydroelectric power. </t>
+  </si>
+  <si>
     <t>https://www.bu.edu/africa/outreach/teachingresources/literature-language-arts/language/#:~:text=There%20are%20over%203%2C000%20languages,Africa%2C%20and%20the%20Arabian%20Peninsula</t>
   </si>
   <si>
-    <t>https://africacenter.org/spotlight/african-conflicts-displace-over-40-million-people/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.forbes.com/lists/africa-billionaires/ </t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/5596/14980244297_0f27d9e15e_b.jpg</t>
-  </si>
-  <si>
-    <t>The semiarid regions are similar to the desert regions in temperature but are not true desert due to receiving more rainfall. This region includes the greater part of the land south of the Zambezi River.</t>
-  </si>
-  <si>
-    <t>https://www.worldbank.org/en/results/2023/06/27/from-connectivity-to-services-digital-transformation-in-africa</t>
-  </si>
-  <si>
-    <t>https://www.brookings.edu/articles/good-and-inclusive-governance-is-imperative-for-africas-future/</t>
+    <t>https://www.insidermonkey.com/blog/5-most-visited-countries-in-africa-1279302/</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f6/Lake_Victoria_view.png</t>
   </si>
   <si>
     <t>https://finance.yahoo.com/news/15-african-countries-english-official-101756305.html#:~:text=Over%2024%20countries%20exist%20in,such%20as%20a%20language%20barrier.</t>
   </si>
   <si>
-    <t>https://www.unrefugees.org/news/sudan-crisis-explained/</t>
-  </si>
-  <si>
-    <t>The Ethiopian Highlands rose 75 million years ago as magma. The Great Rift Valley System was formed after Africa's continental crust pulled apart. 80 percent of Africa's tallest mountains reside in the Highlands. One unique animal that some may not think resides in Africa is the Ethiopian wolf. (ethiopian wolf picture)</t>
-  </si>
-  <si>
-    <t>The tropical wet-and-dry region, more popularly known as the savanna region, incorrectly suggest that everywhere with savanna vegetation has this climate. This region covers a little less than 50% of the continent's total surface area. 6 months of rainfall characterize this region. Some places may have little rainfall during the low sun period however. The mean monthly temperatures have little variation. In western Africa, the harmattan season directs the period of low sun. The harmattan is a warm, dry, easterly or northeasterly wind from the Sahara, bringing with it lots of sand and dust.</t>
-  </si>
-  <si>
-    <t>https://www.statista.com/statistics/1124283/internet-penetration-in-africa-by-country/</t>
-  </si>
-  <si>
-    <t>https://cepr.org/voxeu/columns/contemporary-shadow-scramble-africa</t>
+    <t>https://worldpopulationreview.com/cities</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/7444/16361601539_50c72bc718_b.jpg</t>
   </si>
   <si>
     <t>https://www.statista.com/statistics/1280625/number-of-living-languages-in-africa-by-country/</t>
   </si>
   <si>
-    <t>https://hmh.org/library/research/genocide-in-darfur-guide/</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/51707265922_9109204e07_b.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/6/64/Harmattan._Dust._Fishing_Pirougues._Senegal.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cia.gov/the-world-factbook/field/telephones-mobile-cellular/country-comparison/</t>
-  </si>
-  <si>
-    <t>https://www.chathamhouse.org/2021/09/terrorism-africa#:~:text=Islamic%20terrorism%20in%20Africa&amp;text=Insurgent%20groups%20are%20often%20riven,by%20any%20international%20jihadist%20mission.</t>
-  </si>
-  <si>
-    <t>https://s3.animalia.bio/animals/photos/full/original/1620px-ethiopian-wolf-canis-simensis-citernii-2jpg.webp</t>
-  </si>
-  <si>
-    <t>Equatorial regions are the wettest in Africa. There are specifically two peak periods of rainfall. Variations in temperature are typically less pronounced than the tropical wet-and-dry regions but sometimes one rainy season may be monsoonal and the other near nonexistent.</t>
-  </si>
-  <si>
-    <t>https://www.un.org/africarenewal/magazine/may-2013/africa%E2%80%99s-mobile-youth-drive-change#:~:text=Cell%20phones%20today%20are%20nearly,the%20United%20States%20or%20Europe.</t>
-  </si>
-  <si>
-    <t>https://www.pewresearch.org/short-reads/2021/09/01/muslims-are-a-growing-presence-in-u-s-but-still-face-negative-views-from-the-public/</t>
-  </si>
-  <si>
-    <t>The savannas comprise almost half of Africa, beginning south of the Sahel and ending just north of the continent's southern tip. The most popular savanna region is the Serengeti Plains. Afirca's highest concentrations of large mammal species reside there. However, the savanna lands are decreasing due to a desire for more agriculture. (picture)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mediterranean or dry summer subtropical region covers the northern and southern extremes of Africa. Rain falls during the winter. Monthly temperatures are lower than tropical climates on average dropping to roughly 50 degrees Fahrenheit in the winter. Summer temperatures, however, may exceed that of tropical climates. Clear blue skies are also another characteristic of this climatic region. </t>
-  </si>
-  <si>
-    <t>https://www.worldbank.org/en/results/2024/01/18/digital-transformation-drives-development-in-afe-afw-africa</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/5658/21113022669_95ae9e9e44_b.jpg</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/4148/5142405785_e33ebfa73f_b.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Swahili Coast stretches along the coast of Kenya, Mozambique, and Tanzania. Areas of the Coast are centers for trade and water travel. Major international include Dar es Salaam and Mombasa. (picture of international port) </t>
-  </si>
-  <si>
-    <t>The humid subtropical marine climate is restricted to the southeast coast of Africa. Rain falls throughout the year, reaching its heaviest amounts during the summer.</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/677/20759179108_d7266c5ea1_b.jpg</t>
-  </si>
-  <si>
-    <t>The warm temperate upland climatic region is found on the Highveld of Southern Africa. The rainfall is similar to the tropical wet-and-dry climate but temperatures are dependent on altitude.</t>
-  </si>
-  <si>
-    <t>Mangrove forests are the most common form of vegetation in the Swahili Coast. (picture)</t>
-  </si>
-  <si>
-    <t>The mountain climatic region covers the high mountains of Ethiopia and the lakes of East Africa. This climate is similar to the warm temperate upland climate minus the fact that temperatures can be lower because of mountains like Mt. Kilimanjaro. Rainfall is similar to that of the adjacent lowland areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://live.staticflickr.com/2919/34157493675_5d1813a1bd_b.jpg </t>
-  </si>
-  <si>
-    <t>https://www.aquilasafari.com/wp-content/uploads/2024/07/Lion-at-Aquila-Private-Game-Reserve-in-the-Snow.jpg</t>
-  </si>
-  <si>
-    <t>The rainforests of Africa are known for their rich biodiversity. Some indigenous rainforest groups live off the forest's provisions but have little content with the urban populations.</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/3555/3518494043_871df54379_b.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa has its own Great Lakes region just like America. The Great Lakes reside in 10 countries surrounding the Great Rift Valley: Burundi, the Democratic Republic of Congo, Ethiopia, Kenya, Malawi, Mozambique, Rwanda, Tanzania, Uganda, and Zambia. The Lakes themselves are Lake Albert, Lake Edward, Lake Kivu, Lake Malawai, Lake Tanganyika, Lake Turkana, and Lake Victoria.  Lake Victoria which in and of itself is the largest lake in Africa also happens to be the southern source of the Nile River, the longest river in the world. Local governments are looking to harness the power of river and lakes to create hydroelectric power. </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/f/f6/Lake_Victoria_view.png</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/7444/16361601539_50c72bc718_b.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/4/47/Katse_Dam.jpg</t>
   </si>
   <si>
     <t>https://images.squarespace-cdn.com/content/v1/63adbd0046fb7c3c750a3211/ab1be593-2bab-4eb3-8d51-7e9c45412916/Cataratas_Victoria%2C_Zambia-Zimbabue%2C_2018-07-27%2C_DD_07.jpg</t>
   </si>
   <si>
-    <t>Southern Africa, not to be mistaken with the country of South Africa is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's reserves, providing jobs and revenue. The Cape Floral Region is home to nearly 20% of Africa's flora. The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters)</t>
+    <t>Southern Africa, not to be mistaken with the country of South Africa, is a shelf of bedrock several billions of years old. This region is the epicenter of Africa's mineral reserves, providing  lots of jobs and revenue. One notable part of Southern Africa is the Cape Floral Region which is home to nearly 20% of Africa's flora. The Cape is the home to roughly 9,000 species. It is one of Earth's six floral kingdoms. On satellite maps it is the the large band of green between the ocean and the southern part of Africa. As previously mentioned, the Cape Floral Region is incredibly biodiverse, supporting 20% of Africa's plant life. Numerous areas within the region are protected as UNESCO World Heritage sites, national parks, nature reserves, and more. The highest point in Africa is Mount Kilimanjaro from Tanzania at a staggering 19,340 feet (5,895 meters). The mountain is also a volcano, with three main peaks: Kibo, Mawenzi, and Shira.</t>
   </si>
   <si>
     <t xml:space="preserve">https://live.staticflickr.com/4719/39727487654_7f764ca01d_b.jpg </t>
@@ -323,7 +563,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,16 +873,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="43.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="58.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="45.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="52.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="57.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="62.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="67.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -677,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -687,357 +927,511 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="1086" customFormat="1" s="1">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="573" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33" customFormat="1" s="1">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="100.5" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="627" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="235.5" customFormat="1" s="1">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="222" customFormat="1" s="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="343.5" customFormat="1" s="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="73.5" customFormat="1" s="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="235.5" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="370.5" customFormat="1" s="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="154.5" customFormat="1" s="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="J16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="168" customFormat="1" s="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="J18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1046,12 +1440,12 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1060,7 +1454,7 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="195" customFormat="1" s="1">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1074,7 +1468,7 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="316.5" customFormat="1" s="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1088,7 +1482,7 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Africa has a unique situation with the quality of its education influenced by health crises, lingering effects of Western colonialism, armed conflicts, and gender disparities. On one hand, Africa has produced many great scholars from the great writer Chinua Achebe of Nigeria to Sameera Moussa, the first Egyptian nuclear physicist. Here at this </t>
   </si>
   <si>
-    <t>static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+    <t>/static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
   </si>
   <si>
     <t xml:space="preserve">The Sahara covers the northern part of Africa. The climate of the region can be explored in the climate section. As commonly known, the Sahara is entirely desert can covers the majority of North Africa. Oases, rivers, and lakes provide water to the region's inhabitants. Vegetation is sparse and animals have adapted over time to this unique region. </t>
@@ -193,10 +193,13 @@
     <t>According to the African Development Bank, African countries need to update their infrastructure to meet the demands of the growing population. This is leading to a rise in investment by Western countries such as China and the United States.</t>
   </si>
   <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -563,7 +566,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="141" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -949,7 +952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="573" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="6175.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -211,7 +211,7 @@
     <t>https://assets.weforum.org/editor/a4LcEFARWzwzzErO3f9QwuXQtoOxHGaJ1jz9HFo-LGY.png</t>
   </si>
   <si>
-    <t>https://cdn.britannica.com/33/146033-050-1F84E56E/Sahel-rain-season-Bamako-Mali-Kayes.jpg?w=300</t>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSfJVgIgXeVCATvvysUWPZpQEni_3IHbmLk2w&amp;s</t>
   </si>
   <si>
     <t>The semiarid regions are similar to the desert regions in temperature but are not true desert due to receiving more rainfall. This region includes the greater part of the land south of the Zambezi River.</t>
@@ -340,7 +340,7 @@
     <t>https://www.transparency.org/en/cpi/2023</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSG1StMDvTMk41LqJAqlZTi6pBKm_gTonMwuw&amp;s</t>
+    <t>https://cdn.britannica.com/91/200591-050-95794068/Mohamed-Salah-Egyptian-skills-English-Premier-League-2018.jpg</t>
   </si>
   <si>
     <t>https://hmh.org/library/research/genocide-in-darfur-guide/</t>
@@ -445,7 +445,7 @@
     <t>https://www.visionofhumanity.org/maps/#/</t>
   </si>
   <si>
-    <t>https://files.worldwildlife.org/wwfcmsprod/images/Forest_Elephant_Threats/featured_story/96u1aup12a_Forest_elephant_7.30.2012_threats_HI_36715.jpg</t>
+    <t>https://files.worldwildlife.org/wwfcmsprod/images/Luilaka_River_Salonga_National_Park/story_full_width/8gzwbmgfu0_Medium_WW243241.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar is unique from the regions of mainland Africa in that its Malagasy ethnic gropus mostly originate from Indonesia. The Malagasy language itself is considered Austronesian. Going back to folk religion as briefly touched on before, it is often believed that Africans practice traditional religions. This is not necessarily true. Africans typically practice Islam or Christianity but may adapt these religions to certain cultural and spritual aspects of the folk religion their ancestors used to have. Some people may use withcraft and myths to explain unnatural events but typically do not override their primary religion. Priests, clan elders, prophets, rainmakers, and other folk religion leaders mostly reside in very rural regions, not urban or surburban communities. That is not to say that folk religion may not exist in a rural village. This simply depends on where you are. While in the past, some societies were matrilineal, notably having iconic female leaders long before kingdoms of other countries, a patriarchal system consisting of violence and polygamy is quite prominent in the modern era. However, this should not be considered as a catch-all. Families all over the African continent and the world have different values, beliefs, and interactions with each other. </t>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -103,10 +103,10 @@
     <t>This is one of the more prevalent stereotypes about Africa. Contrary to popular belief, Africa has several large and bustling urban cities on the scale of New York, Abu Dhabi, and Sydney of Western countries. Lagos, Nigeria . Urbanization reached near 44% in Africa overall 2021. Libya alone has more than 80% of the country urbanized. Urbanization has consistently risen since 2000. Kinshasa, Democratic Republic of the Congo and Lagos, Nigeria are the 14th and 15th largest cities in the world, respectively. Lagos alone has a population of more than 16.5 million people. This is more than Rio De Janeiro, Seoul, London, and Toronto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Africa has a unique situation with the quality of its education influenced by health crises, lingering effects of Western colonialism, armed conflicts, and gender disparities. On one hand, Africa has produced many great scholars from the great writer Chinua Achebe of Nigeria to Sameera Moussa, the first Egyptian nuclear physicist. Here at this </t>
-  </si>
-  <si>
-    <t>/static/assets/img/econ/exp-2024-10-19_04_16_26.png</t>
+    <t xml:space="preserve">Africa has a unique situation with the quality of its education influenced by health crises, lingering effects of Western colonialism, armed conflicts, and gender disparities. On one hand, Africa has produced many great scholars from the great writer Chinua Achebe of Nigeria to Sameera Moussa, the first Egyptian nuclear physicist. </t>
+  </si>
+  <si>
+    <t>/static/img/econ/exp-2024-10-19_04_16_26.png</t>
   </si>
   <si>
     <t xml:space="preserve">The Sahara covers the northern part of Africa. The climate of the region can be explored in the climate section. As commonly known, the Sahara is entirely desert can covers the majority of North Africa. Oases, rivers, and lakes provide water to the region's inhabitants. Vegetation is sparse and animals have adapted over time to this unique region. </t>
@@ -124,7 +124,7 @@
     <t>&lt;a href="https://www.statista.com/statistics/1280625/number-of-living-languages-in-africa-by-country/" rel="nofollow"&gt;&lt;img src="https://www.statista.com/graphic/1/1280625/number-of-living-languages-in-africa-by-country.jpg" alt="Statistic: Number of living languages in Africa as of 2022, by country  | Statista" style="width: 100%; height: auto !important; max-width:1000px;-ms-interpolation-mode: bicubic;"/&gt;&lt;/a&gt;&lt;br /&gt;Find more statistics at  &lt;a href="https://www.statista.com" rel="nofollow"&gt;Statista&lt;/a&gt;</t>
   </si>
   <si>
-    <t>/static/assets/img/war/gpi_terror.png</t>
+    <t>/static/img/war/gpi_terror.png</t>
   </si>
   <si>
     <t>/static/assets/img/health/contraceptives.png</t>
@@ -133,7 +133,7 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/6/63/2014_Victoria_Island_Lagos_Nigeria_15006436297.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.theafricareport.com/in-depth/the-100-most-influential-africans/ </t>
+    <t>https://www.theafricareport.com/in-depth/the-100-most-influential-africans/</t>
   </si>
   <si>
     <t xml:space="preserve">Oil, hydrocarbons, and natural gas all have heavily contributed to the skyrocketing growth of these economies. Sub-Saharan Africa is the second fastest growing region in the world. In Southern and Central Africa, metals and minerals are the largest exports. Africa actually has a very huge share of the world's mineral resources, making the continent incredibly valuable. These kinds of resources are part of why imperialism took place there in past, actually contributing to some of the destablization present in some countries today. In Morocco, Tunisia, and Lesotho, textiles and clothing are the largest exports. Food and drink in general contribute a significant amount to the growth of the economy. According to Forbes, Africa has at least 19 billionaires in various industries with Aliko Dangote from Nigeria being the richest at a net worth of a $13.9 billion. Despite income inequality, the middle class of Africa had risen to 34% of the population by 2010. Many Africans are making a substantial living, especially in major urban cities. The poverty rate is declining as many countries' economies continue to develop and grow. However 464 million people still live in poverty. Investing the population will help many of Africa's countries to overcome issues created by climate change, armed conflicts, and industrial issues. The working age population is expecte to increase by 750 million by 2050 although 3 million new formal wage jobs are created each year. </t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">These are not just anomalies either. Cairo is the 6th most populous city in the world with a stagerring population of more than 22.6 million. Luanda, Angola has a population of 9.65 million. Dar Es Salaam, Tanzania has a population of 8.16 million. Cape Town, South Africa has a population of nearly 5 million. The majority of African cities have a rising population growth rate as well. </t>
   </si>
   <si>
-    <t xml:space="preserve">link, you'll see a list of many Africans in numerous fields that are famous and/or had a great impact on today's world. Not to mention that at least 15 of Africa's countries have an adult literacy rate of 80% or above. </t>
+    <t xml:space="preserve">Many Africans in numerous fields are famous and/or had a great impact on today's world. Not to mention that at least 15 of Africa's countries have an adult literacy rate of 80% or above. </t>
   </si>
   <si>
     <t>https://carnegie-production-assets.s3.amazonaws.com/static/media/images/Africa_Chart_May.png</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Stereotype: Africa is unsafe to travel to and be in. </t>
   </si>
   <si>
-    <t>/static/assets/img/health/immunity_chart.png</t>
+    <t>/static/img/health/immunity_chart.png</t>
   </si>
   <si>
     <t>According to the African Development Bank, African countries need to update their infrastructure to meet the demands of the growing population. This is leading to a rise in investment by Western countries such as China and the United States.</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">In Northern Africa, people speak mostly speak languages belonging to the Afro-Asiatic language family. The Berbers and Arabs are some of the notable groups of this region. The Arab people migrated to North Africa from Arabia centuries ago, leading to a unique Arabian culture in the North African region that has significant differences from those in the Middle East. The dominant religion is Islam. North Africa should not be confused with the Middle Eastern Region. The country of Egypt is the only African country part of the Middle East and North Africa. While both North Africa and the Middle East have large Arab and Muslim populations, they are not interchangeable with each other.  The Middle East is a unique geopolitical region separate from continental divisions. Here another stereotype should be noted. </t>
   </si>
   <si>
-    <t>/static/assets/img/war/gpi_peace.png</t>
+    <t>/static/img/war/gpi_peace.png</t>
   </si>
   <si>
     <t>https://files.aho.afro.who.int/afahobckpcontainer/production/files/Health-for-all_Regional_Factsheet.pdf</t>

--- a/stereotypes.xlsx
+++ b/stereotypes.xlsx
@@ -127,7 +127,7 @@
     <t>/static/img/war/gpi_terror.png</t>
   </si>
   <si>
-    <t>/static/assets/img/health/contraceptives.png</t>
+    <t>/static/img/health/contraceptives.png</t>
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/6/63/2014_Victoria_Island_Lagos_Nigeria_15006436297.jpg</t>
